--- a/03 Reports/Summary.xlsx
+++ b/03 Reports/Summary.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O356"/>
+  <dimension ref="A1:O477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11009,7 +11009,7 @@
         <v>0.3875</v>
       </c>
       <c r="M322" t="n">
-        <v>0.3167160536865957</v>
+        <v>0.316716053686596</v>
       </c>
       <c r="N322" t="n">
         <v>0.9</v>
@@ -11036,7 +11036,7 @@
         <v>0.3125</v>
       </c>
       <c r="M323" t="n">
-        <v>0.2374350086655113</v>
+        <v>0.237435008665511</v>
       </c>
       <c r="N323" t="n">
         <v>1.475</v>
@@ -11060,16 +11060,16 @@
         <v>3</v>
       </c>
       <c r="L324" t="n">
-        <v>0.4810126582278481</v>
+        <v>0.481012658227848</v>
       </c>
       <c r="M324" t="n">
-        <v>0.4248934659090908</v>
+        <v>0.424893465909091</v>
       </c>
       <c r="N324" t="n">
-        <v>0.9873417721518988</v>
+        <v>0.987341772151899</v>
       </c>
       <c r="O324" t="n">
-        <v>2.911392405063291</v>
+        <v>2.91139240506329</v>
       </c>
     </row>
     <row r="325">
@@ -11087,16 +11087,16 @@
         <v>4</v>
       </c>
       <c r="L325" t="n">
-        <v>0.4050632911392405</v>
+        <v>0.40506329113924</v>
       </c>
       <c r="M325" t="n">
         <v>0.336608897623727</v>
       </c>
       <c r="N325" t="n">
-        <v>1.088607594936709</v>
+        <v>1.08860759493671</v>
       </c>
       <c r="O325" t="n">
-        <v>2.987341772151899</v>
+        <v>2.9873417721519</v>
       </c>
     </row>
     <row r="326">
@@ -11117,7 +11117,7 @@
         <v>0.3625</v>
       </c>
       <c r="M326" t="n">
-        <v>0.2920353982300886</v>
+        <v>0.292035398230089</v>
       </c>
       <c r="N326" t="n">
         <v>0.925</v>
@@ -11172,7 +11172,7 @@
         <v>0.3875</v>
       </c>
       <c r="M327" t="n">
-        <v>0.3174299146787392</v>
+        <v>0.317429914678739</v>
       </c>
       <c r="N327" t="n">
         <v>1</v>
@@ -11199,7 +11199,7 @@
         <v>0.4</v>
       </c>
       <c r="M328" t="n">
-        <v>0.3341425351135773</v>
+        <v>0.334142535113577</v>
       </c>
       <c r="N328" t="n">
         <v>0.9375</v>
@@ -11223,16 +11223,16 @@
         <v>3</v>
       </c>
       <c r="L329" t="n">
-        <v>0.4050632911392405</v>
+        <v>0.40506329113924</v>
       </c>
       <c r="M329" t="n">
-        <v>0.3409655662051827</v>
+        <v>0.340965566205183</v>
       </c>
       <c r="N329" t="n">
         <v>1</v>
       </c>
       <c r="O329" t="n">
-        <v>2.265822784810127</v>
+        <v>2.26582278481013</v>
       </c>
     </row>
     <row r="330">
@@ -11250,16 +11250,16 @@
         <v>4</v>
       </c>
       <c r="L330" t="n">
-        <v>0.4303797468354431</v>
+        <v>0.430379746835443</v>
       </c>
       <c r="M330" t="n">
-        <v>0.3669871794871795</v>
+        <v>0.36698717948718</v>
       </c>
       <c r="N330" t="n">
-        <v>0.8987341772151899</v>
+        <v>0.89873417721519</v>
       </c>
       <c r="O330" t="n">
-        <v>2.063291139240506</v>
+        <v>2.06329113924051</v>
       </c>
     </row>
     <row r="331">
@@ -11280,7 +11280,7 @@
         <v>0.3875</v>
       </c>
       <c r="M331" t="n">
-        <v>0.3188531711555169</v>
+        <v>0.318853171155517</v>
       </c>
       <c r="N331" t="n">
         <v>0.85</v>
@@ -11335,7 +11335,7 @@
         <v>0.3125</v>
       </c>
       <c r="M332" t="n">
-        <v>0.2362437076896372</v>
+        <v>0.236243707689637</v>
       </c>
       <c r="N332" t="n">
         <v>1.4625</v>
@@ -11362,7 +11362,7 @@
         <v>0.3875</v>
       </c>
       <c r="M333" t="n">
-        <v>0.3193262719222089</v>
+        <v>0.319326271922209</v>
       </c>
       <c r="N333" t="n">
         <v>1.0375</v>
@@ -11389,13 +11389,13 @@
         <v>0.379746835443038</v>
       </c>
       <c r="M334" t="n">
-        <v>0.3118222222222222</v>
+        <v>0.311822222222222</v>
       </c>
       <c r="N334" t="n">
-        <v>1.025316455696202</v>
+        <v>1.0253164556962</v>
       </c>
       <c r="O334" t="n">
-        <v>2.468354430379747</v>
+        <v>2.46835443037975</v>
       </c>
     </row>
     <row r="335">
@@ -11416,13 +11416,13 @@
         <v>0.379746835443038</v>
       </c>
       <c r="M335" t="n">
-        <v>0.3089967868618351</v>
+        <v>0.308996786861835</v>
       </c>
       <c r="N335" t="n">
-        <v>1.126582278481013</v>
+        <v>1.12658227848101</v>
       </c>
       <c r="O335" t="n">
-        <v>3.278481012658228</v>
+        <v>3.27848101265823</v>
       </c>
     </row>
     <row r="336">
@@ -11443,7 +11443,7 @@
         <v>0.3875</v>
       </c>
       <c r="M336" t="n">
-        <v>0.3197987159465555</v>
+        <v>0.319798715946555</v>
       </c>
       <c r="N336" t="n">
         <v>1.1125</v>
@@ -11498,7 +11498,7 @@
         <v>0.3375</v>
       </c>
       <c r="M337" t="n">
-        <v>0.2649098474341194</v>
+        <v>0.264909847434119</v>
       </c>
       <c r="N337" t="n">
         <v>1.2125</v>
@@ -11525,7 +11525,7 @@
         <v>0.3625</v>
       </c>
       <c r="M338" t="n">
-        <v>0.2919125303713987</v>
+        <v>0.291912530371399</v>
       </c>
       <c r="N338" t="n">
         <v>1.3375</v>
@@ -11552,10 +11552,10 @@
         <v>0.379746835443038</v>
       </c>
       <c r="M339" t="n">
-        <v>0.3118222222222223</v>
+        <v>0.311822222222222</v>
       </c>
       <c r="N339" t="n">
-        <v>1.037974683544304</v>
+        <v>1.0379746835443</v>
       </c>
       <c r="O339" t="n">
         <v>2.40506329113924</v>
@@ -11576,16 +11576,16 @@
         <v>4</v>
       </c>
       <c r="L340" t="n">
-        <v>0.4303797468354431</v>
+        <v>0.430379746835443</v>
       </c>
       <c r="M340" t="n">
-        <v>0.3647248034310222</v>
+        <v>0.364724803431022</v>
       </c>
       <c r="N340" t="n">
-        <v>1.126582278481013</v>
+        <v>1.12658227848101</v>
       </c>
       <c r="O340" t="n">
-        <v>3.886075949367088</v>
+        <v>3.88607594936709</v>
       </c>
     </row>
     <row r="341">
@@ -11606,7 +11606,7 @@
         <v>0.3</v>
       </c>
       <c r="M341" t="n">
-        <v>0.2231662909658402</v>
+        <v>0.22316629096584</v>
       </c>
       <c r="N341" t="n">
         <v>1.125</v>
@@ -11661,7 +11661,7 @@
         <v>0.3375</v>
       </c>
       <c r="M342" t="n">
-        <v>0.2638888888888891</v>
+        <v>0.263888888888889</v>
       </c>
       <c r="N342" t="n">
         <v>1</v>
@@ -11712,16 +11712,16 @@
         <v>3</v>
       </c>
       <c r="L344" t="n">
-        <v>0.3924050632911392</v>
+        <v>0.392405063291139</v>
       </c>
       <c r="M344" t="n">
-        <v>0.3263457097175342</v>
+        <v>0.326345709717534</v>
       </c>
       <c r="N344" t="n">
-        <v>1.012658227848101</v>
+        <v>1.0126582278481</v>
       </c>
       <c r="O344" t="n">
-        <v>2.683544303797468</v>
+        <v>2.68354430379747</v>
       </c>
     </row>
     <row r="345">
@@ -11739,16 +11739,16 @@
         <v>4</v>
       </c>
       <c r="L345" t="n">
-        <v>0.3670886075949367</v>
+        <v>0.367088607594937</v>
       </c>
       <c r="M345" t="n">
-        <v>0.2936337625178828</v>
+        <v>0.293633762517883</v>
       </c>
       <c r="N345" t="n">
-        <v>0.9240506329113924</v>
+        <v>0.924050632911392</v>
       </c>
       <c r="O345" t="n">
-        <v>2.037974683544304</v>
+        <v>2.0379746835443</v>
       </c>
     </row>
     <row r="346">
@@ -11769,7 +11769,7 @@
         <v>0.45</v>
       </c>
       <c r="M346" t="n">
-        <v>0.3889949661517098</v>
+        <v>0.38899496615171</v>
       </c>
       <c r="N346" t="n">
         <v>0.8875</v>
@@ -11824,7 +11824,7 @@
         <v>0.375</v>
       </c>
       <c r="M347" t="n">
-        <v>0.3037423846823326</v>
+        <v>0.303742384682333</v>
       </c>
       <c r="N347" t="n">
         <v>1.075</v>
@@ -11851,7 +11851,7 @@
         <v>0.3125</v>
       </c>
       <c r="M348" t="n">
-        <v>0.2402003108271455</v>
+        <v>0.240200310827145</v>
       </c>
       <c r="N348" t="n">
         <v>1.2</v>
@@ -11875,13 +11875,13 @@
         <v>3</v>
       </c>
       <c r="L349" t="n">
-        <v>0.3924050632911392</v>
+        <v>0.392405063291139</v>
       </c>
       <c r="M349" t="n">
-        <v>0.3259864912904373</v>
+        <v>0.325986491290437</v>
       </c>
       <c r="N349" t="n">
-        <v>1.164556962025316</v>
+        <v>1.16455696202532</v>
       </c>
       <c r="O349" t="n">
         <v>3.79746835443038</v>
@@ -11902,16 +11902,16 @@
         <v>4</v>
       </c>
       <c r="L350" t="n">
-        <v>0.4177215189873418</v>
+        <v>0.417721518987342</v>
       </c>
       <c r="M350" t="n">
-        <v>0.3526897043106521</v>
+        <v>0.352689704310652</v>
       </c>
       <c r="N350" t="n">
-        <v>1.113924050632911</v>
+        <v>1.11392405063291</v>
       </c>
       <c r="O350" t="n">
-        <v>3.645569620253164</v>
+        <v>3.64556962025316</v>
       </c>
     </row>
     <row r="351">
@@ -11932,7 +11932,7 @@
         <v>0.375</v>
       </c>
       <c r="M351" t="n">
-        <v>0.3062781824488381</v>
+        <v>0.306278182448838</v>
       </c>
       <c r="N351" t="n">
         <v>1.1375</v>
@@ -11987,7 +11987,7 @@
         <v>0.325</v>
       </c>
       <c r="M352" t="n">
-        <v>0.2489568845618916</v>
+        <v>0.248956884561892</v>
       </c>
       <c r="N352" t="n">
         <v>1.2875</v>
@@ -12014,7 +12014,7 @@
         <v>0.3625</v>
       </c>
       <c r="M353" t="n">
-        <v>0.2949714878175219</v>
+        <v>0.294971487817522</v>
       </c>
       <c r="N353" t="n">
         <v>0.9875</v>
@@ -12038,13 +12038,13 @@
         <v>3</v>
       </c>
       <c r="L354" t="n">
-        <v>0.4050632911392405</v>
+        <v>0.40506329113924</v>
       </c>
       <c r="M354" t="n">
-        <v>0.3373192932357667</v>
+        <v>0.337319293235767</v>
       </c>
       <c r="N354" t="n">
-        <v>0.9367088607594937</v>
+        <v>0.936708860759494</v>
       </c>
       <c r="O354" t="n">
         <v>1.89873417721519</v>
@@ -12065,16 +12065,16 @@
         <v>4</v>
       </c>
       <c r="L355" t="n">
-        <v>0.3924050632911392</v>
+        <v>0.392405063291139</v>
       </c>
       <c r="M355" t="n">
-        <v>0.3234611953612848</v>
+        <v>0.323461195361285</v>
       </c>
       <c r="N355" t="n">
-        <v>1.139240506329114</v>
+        <v>1.13924050632911</v>
       </c>
       <c r="O355" t="n">
-        <v>3.721518987341772</v>
+        <v>3.72151898734177</v>
       </c>
     </row>
     <row r="356">
@@ -12095,7 +12095,7 @@
         <v>0.4</v>
       </c>
       <c r="M356" t="n">
-        <v>0.3318253001566034</v>
+        <v>0.331825300156603</v>
       </c>
       <c r="N356" t="n">
         <v>1.1375</v>
@@ -12104,23 +12104,4023 @@
         <v>3.6875</v>
       </c>
     </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>1110_183430037216</t>
+        </is>
+      </c>
+      <c r="B357" s="1" t="inlineStr">
+        <is>
+          <t>Frankenstein</t>
+        </is>
+      </c>
+      <c r="C357" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D357" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E357" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F357" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="G357" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H357" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I357" s="1" t="inlineStr">
+        <is>
+          <t>0.523 (0.088)</t>
+        </is>
+      </c>
+      <c r="J357" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K357" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0.467741935483871</v>
+      </c>
+      <c r="M357" t="n">
+        <v>0.394853593611357</v>
+      </c>
+      <c r="N357" t="n">
+        <v>0.645161290322581</v>
+      </c>
+      <c r="O357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n"/>
+      <c r="B358" s="1" t="n"/>
+      <c r="C358" s="1" t="n"/>
+      <c r="D358" s="1" t="n"/>
+      <c r="E358" s="1" t="n"/>
+      <c r="F358" s="1" t="n"/>
+      <c r="G358" s="1" t="n"/>
+      <c r="H358" s="1" t="n"/>
+      <c r="I358" s="1" t="n"/>
+      <c r="J358" s="1" t="n"/>
+      <c r="K358" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0.564516129032258</v>
+      </c>
+      <c r="M358" t="n">
+        <v>0.49850209706411</v>
+      </c>
+      <c r="N358" t="n">
+        <v>0.532258064516129</v>
+      </c>
+      <c r="O358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n"/>
+      <c r="B359" s="1" t="n"/>
+      <c r="C359" s="1" t="n"/>
+      <c r="D359" s="1" t="n"/>
+      <c r="E359" s="1" t="n"/>
+      <c r="F359" s="1" t="n"/>
+      <c r="G359" s="1" t="n"/>
+      <c r="H359" s="1" t="n"/>
+      <c r="I359" s="1" t="n"/>
+      <c r="J359" s="1" t="n"/>
+      <c r="K359" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0.629032258064516</v>
+      </c>
+      <c r="M359" t="n">
+        <v>0.574328358208955</v>
+      </c>
+      <c r="N359" t="n">
+        <v>0.387096774193548</v>
+      </c>
+      <c r="O359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n"/>
+      <c r="B360" s="1" t="n"/>
+      <c r="C360" s="1" t="n"/>
+      <c r="D360" s="1" t="n"/>
+      <c r="E360" s="1" t="n"/>
+      <c r="F360" s="1" t="n"/>
+      <c r="G360" s="1" t="n"/>
+      <c r="H360" s="1" t="n"/>
+      <c r="I360" s="1" t="n"/>
+      <c r="J360" s="1" t="n"/>
+      <c r="K360" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0.5483870967741939</v>
+      </c>
+      <c r="M360" t="n">
+        <v>0.475052918052616</v>
+      </c>
+      <c r="N360" t="n">
+        <v>0.612903225806452</v>
+      </c>
+      <c r="O360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n"/>
+      <c r="B361" s="1" t="n"/>
+      <c r="C361" s="1" t="n"/>
+      <c r="D361" s="1" t="n"/>
+      <c r="E361" s="1" t="n"/>
+      <c r="F361" s="1" t="n"/>
+      <c r="G361" s="1" t="n"/>
+      <c r="H361" s="1" t="n"/>
+      <c r="I361" s="1" t="n"/>
+      <c r="J361" s="1" t="n"/>
+      <c r="K361" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0.403225806451613</v>
+      </c>
+      <c r="M361" t="n">
+        <v>0.318883610451306</v>
+      </c>
+      <c r="N361" t="n">
+        <v>0.870967741935484</v>
+      </c>
+      <c r="O361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>1110_190417243418</t>
+        </is>
+      </c>
+      <c r="B362" s="1" t="inlineStr">
+        <is>
+          <t>Frankenstein</t>
+        </is>
+      </c>
+      <c r="C362" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D362" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E362" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F362" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="G362" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H362" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I362" s="1" t="inlineStr">
+        <is>
+          <t>0.523 (0.081)</t>
+        </is>
+      </c>
+      <c r="J362" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K362" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L362" t="n">
+        <v>0.660714285714286</v>
+      </c>
+      <c r="M362" t="n">
+        <v>0.5942028985507249</v>
+      </c>
+      <c r="N362" t="n">
+        <v>0.428571428571429</v>
+      </c>
+      <c r="O362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n"/>
+      <c r="B363" s="1" t="n"/>
+      <c r="C363" s="1" t="n"/>
+      <c r="D363" s="1" t="n"/>
+      <c r="E363" s="1" t="n"/>
+      <c r="F363" s="1" t="n"/>
+      <c r="G363" s="1" t="n"/>
+      <c r="H363" s="1" t="n"/>
+      <c r="I363" s="1" t="n"/>
+      <c r="J363" s="1" t="n"/>
+      <c r="K363" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0.464285714285714</v>
+      </c>
+      <c r="M363" t="n">
+        <v>0.380530973451327</v>
+      </c>
+      <c r="N363" t="n">
+        <v>0.660714285714286</v>
+      </c>
+      <c r="O363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n"/>
+      <c r="B364" s="1" t="n"/>
+      <c r="C364" s="1" t="n"/>
+      <c r="D364" s="1" t="n"/>
+      <c r="E364" s="1" t="n"/>
+      <c r="F364" s="1" t="n"/>
+      <c r="G364" s="1" t="n"/>
+      <c r="H364" s="1" t="n"/>
+      <c r="I364" s="1" t="n"/>
+      <c r="J364" s="1" t="n"/>
+      <c r="K364" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0.526315789473684</v>
+      </c>
+      <c r="M364" t="n">
+        <v>0.447793326157158</v>
+      </c>
+      <c r="N364" t="n">
+        <v>0.614035087719298</v>
+      </c>
+      <c r="O364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n"/>
+      <c r="B365" s="1" t="n"/>
+      <c r="C365" s="1" t="n"/>
+      <c r="D365" s="1" t="n"/>
+      <c r="E365" s="1" t="n"/>
+      <c r="F365" s="1" t="n"/>
+      <c r="G365" s="1" t="n"/>
+      <c r="H365" s="1" t="n"/>
+      <c r="I365" s="1" t="n"/>
+      <c r="J365" s="1" t="n"/>
+      <c r="K365" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L365" t="n">
+        <v>0.464285714285714</v>
+      </c>
+      <c r="M365" t="n">
+        <v>0.377547239718414</v>
+      </c>
+      <c r="N365" t="n">
+        <v>0.642857142857143</v>
+      </c>
+      <c r="O365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n"/>
+      <c r="B366" s="1" t="n"/>
+      <c r="C366" s="1" t="n"/>
+      <c r="D366" s="1" t="n"/>
+      <c r="E366" s="1" t="n"/>
+      <c r="F366" s="1" t="n"/>
+      <c r="G366" s="1" t="n"/>
+      <c r="H366" s="1" t="n"/>
+      <c r="I366" s="1" t="n"/>
+      <c r="J366" s="1" t="n"/>
+      <c r="K366" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L366" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M366" t="n">
+        <v>0.414925373134328</v>
+      </c>
+      <c r="N366" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="O366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>1110_183430048457</t>
+        </is>
+      </c>
+      <c r="B367" s="1" t="inlineStr">
+        <is>
+          <t>Frankenstein</t>
+        </is>
+      </c>
+      <c r="C367" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D367" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E367" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F367" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="G367" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H367" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I367" s="1" t="inlineStr">
+        <is>
+          <t>0.452 (0.041)</t>
+        </is>
+      </c>
+      <c r="J367" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K367" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L367" t="n">
+        <v>0.493670886075949</v>
+      </c>
+      <c r="M367" t="n">
+        <v>0.435815033029816</v>
+      </c>
+      <c r="N367" t="n">
+        <v>0.746835443037975</v>
+      </c>
+      <c r="O367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n"/>
+      <c r="B368" s="1" t="n"/>
+      <c r="C368" s="1" t="n"/>
+      <c r="D368" s="1" t="n"/>
+      <c r="E368" s="1" t="n"/>
+      <c r="F368" s="1" t="n"/>
+      <c r="G368" s="1" t="n"/>
+      <c r="H368" s="1" t="n"/>
+      <c r="I368" s="1" t="n"/>
+      <c r="J368" s="1" t="n"/>
+      <c r="K368" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L368" t="n">
+        <v>0.4875</v>
+      </c>
+      <c r="M368" t="n">
+        <v>0.431148109608047</v>
+      </c>
+      <c r="N368" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="O368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n"/>
+      <c r="B369" s="1" t="n"/>
+      <c r="C369" s="1" t="n"/>
+      <c r="D369" s="1" t="n"/>
+      <c r="E369" s="1" t="n"/>
+      <c r="F369" s="1" t="n"/>
+      <c r="G369" s="1" t="n"/>
+      <c r="H369" s="1" t="n"/>
+      <c r="I369" s="1" t="n"/>
+      <c r="J369" s="1" t="n"/>
+      <c r="K369" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L369" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="M369" t="n">
+        <v>0.373040752351097</v>
+      </c>
+      <c r="N369" t="n">
+        <v>0.6375</v>
+      </c>
+      <c r="O369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n"/>
+      <c r="B370" s="1" t="n"/>
+      <c r="C370" s="1" t="n"/>
+      <c r="D370" s="1" t="n"/>
+      <c r="E370" s="1" t="n"/>
+      <c r="F370" s="1" t="n"/>
+      <c r="G370" s="1" t="n"/>
+      <c r="H370" s="1" t="n"/>
+      <c r="I370" s="1" t="n"/>
+      <c r="J370" s="1" t="n"/>
+      <c r="K370" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L370" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M370" t="n">
+        <v>0.393521709166092</v>
+      </c>
+      <c r="N370" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n"/>
+      <c r="B371" s="1" t="n"/>
+      <c r="C371" s="1" t="n"/>
+      <c r="D371" s="1" t="n"/>
+      <c r="E371" s="1" t="n"/>
+      <c r="F371" s="1" t="n"/>
+      <c r="G371" s="1" t="n"/>
+      <c r="H371" s="1" t="n"/>
+      <c r="I371" s="1" t="n"/>
+      <c r="J371" s="1" t="n"/>
+      <c r="K371" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L371" t="n">
+        <v>0.392405063291139</v>
+      </c>
+      <c r="M371" t="n">
+        <v>0.323219703730144</v>
+      </c>
+      <c r="N371" t="n">
+        <v>0.810126582278481</v>
+      </c>
+      <c r="O371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>1110_190417237682</t>
+        </is>
+      </c>
+      <c r="B372" s="1" t="inlineStr">
+        <is>
+          <t>Frankenstein</t>
+        </is>
+      </c>
+      <c r="C372" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D372" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E372" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F372" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="G372" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H372" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I372" s="1" t="inlineStr">
+        <is>
+          <t>0.469 (0.071)</t>
+        </is>
+      </c>
+      <c r="J372" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K372" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L372" t="n">
+        <v>0.431372549019608</v>
+      </c>
+      <c r="M372" t="n">
+        <v>0.318433179723502</v>
+      </c>
+      <c r="N372" t="n">
+        <v>0.725490196078431</v>
+      </c>
+      <c r="O372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n"/>
+      <c r="B373" s="1" t="n"/>
+      <c r="C373" s="1" t="n"/>
+      <c r="D373" s="1" t="n"/>
+      <c r="E373" s="1" t="n"/>
+      <c r="F373" s="1" t="n"/>
+      <c r="G373" s="1" t="n"/>
+      <c r="H373" s="1" t="n"/>
+      <c r="I373" s="1" t="n"/>
+      <c r="J373" s="1" t="n"/>
+      <c r="K373" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L373" t="n">
+        <v>0.384615384615385</v>
+      </c>
+      <c r="M373" t="n">
+        <v>0.273679615888258</v>
+      </c>
+      <c r="N373" t="n">
+        <v>0.942307692307692</v>
+      </c>
+      <c r="O373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n"/>
+      <c r="B374" s="1" t="n"/>
+      <c r="C374" s="1" t="n"/>
+      <c r="D374" s="1" t="n"/>
+      <c r="E374" s="1" t="n"/>
+      <c r="F374" s="1" t="n"/>
+      <c r="G374" s="1" t="n"/>
+      <c r="H374" s="1" t="n"/>
+      <c r="I374" s="1" t="n"/>
+      <c r="J374" s="1" t="n"/>
+      <c r="K374" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L374" t="n">
+        <v>0.576923076923077</v>
+      </c>
+      <c r="M374" t="n">
+        <v>0.5068965517241379</v>
+      </c>
+      <c r="N374" t="n">
+        <v>0.442307692307692</v>
+      </c>
+      <c r="O374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n"/>
+      <c r="B375" s="1" t="n"/>
+      <c r="C375" s="1" t="n"/>
+      <c r="D375" s="1" t="n"/>
+      <c r="E375" s="1" t="n"/>
+      <c r="F375" s="1" t="n"/>
+      <c r="G375" s="1" t="n"/>
+      <c r="H375" s="1" t="n"/>
+      <c r="I375" s="1" t="n"/>
+      <c r="J375" s="1" t="n"/>
+      <c r="K375" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L375" t="n">
+        <v>0.480769230769231</v>
+      </c>
+      <c r="M375" t="n">
+        <v>0.376277210128831</v>
+      </c>
+      <c r="N375" t="n">
+        <v>0.826923076923077</v>
+      </c>
+      <c r="O375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n"/>
+      <c r="B376" s="1" t="n"/>
+      <c r="C376" s="1" t="n"/>
+      <c r="D376" s="1" t="n"/>
+      <c r="E376" s="1" t="n"/>
+      <c r="F376" s="1" t="n"/>
+      <c r="G376" s="1" t="n"/>
+      <c r="H376" s="1" t="n"/>
+      <c r="I376" s="1" t="n"/>
+      <c r="J376" s="1" t="n"/>
+      <c r="K376" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L376" t="n">
+        <v>0.470588235294118</v>
+      </c>
+      <c r="M376" t="n">
+        <v>0.376641014033499</v>
+      </c>
+      <c r="N376" t="n">
+        <v>0.745098039215686</v>
+      </c>
+      <c r="O376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>1110_183430024607</t>
+        </is>
+      </c>
+      <c r="B377" s="1" t="inlineStr">
+        <is>
+          <t>Frankenstein</t>
+        </is>
+      </c>
+      <c r="C377" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D377" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E377" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F377" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="G377" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H377" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I377" s="1" t="inlineStr">
+        <is>
+          <t>0.503 (0.103)</t>
+        </is>
+      </c>
+      <c r="J377" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K377" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L377" t="n">
+        <v>0.372549019607843</v>
+      </c>
+      <c r="M377" t="n">
+        <v>0.249310027598896</v>
+      </c>
+      <c r="N377" t="n">
+        <v>0.764705882352941</v>
+      </c>
+      <c r="O377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n"/>
+      <c r="B378" s="1" t="n"/>
+      <c r="C378" s="1" t="n"/>
+      <c r="D378" s="1" t="n"/>
+      <c r="E378" s="1" t="n"/>
+      <c r="F378" s="1" t="n"/>
+      <c r="G378" s="1" t="n"/>
+      <c r="H378" s="1" t="n"/>
+      <c r="I378" s="1" t="n"/>
+      <c r="J378" s="1" t="n"/>
+      <c r="K378" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L378" t="n">
+        <v>0.5192307692307691</v>
+      </c>
+      <c r="M378" t="n">
+        <v>0.434782608695652</v>
+      </c>
+      <c r="N378" t="n">
+        <v>0.538461538461538</v>
+      </c>
+      <c r="O378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n"/>
+      <c r="B379" s="1" t="n"/>
+      <c r="C379" s="1" t="n"/>
+      <c r="D379" s="1" t="n"/>
+      <c r="E379" s="1" t="n"/>
+      <c r="F379" s="1" t="n"/>
+      <c r="G379" s="1" t="n"/>
+      <c r="H379" s="1" t="n"/>
+      <c r="I379" s="1" t="n"/>
+      <c r="J379" s="1" t="n"/>
+      <c r="K379" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L379" t="n">
+        <v>0.634615384615385</v>
+      </c>
+      <c r="M379" t="n">
+        <v>0.5730337078651691</v>
+      </c>
+      <c r="N379" t="n">
+        <v>0.403846153846154</v>
+      </c>
+      <c r="O379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n"/>
+      <c r="B380" s="1" t="n"/>
+      <c r="C380" s="1" t="n"/>
+      <c r="D380" s="1" t="n"/>
+      <c r="E380" s="1" t="n"/>
+      <c r="F380" s="1" t="n"/>
+      <c r="G380" s="1" t="n"/>
+      <c r="H380" s="1" t="n"/>
+      <c r="I380" s="1" t="n"/>
+      <c r="J380" s="1" t="n"/>
+      <c r="K380" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L380" t="n">
+        <v>0.557692307692308</v>
+      </c>
+      <c r="M380" t="n">
+        <v>0.476357267950963</v>
+      </c>
+      <c r="N380" t="n">
+        <v>0.615384615384615</v>
+      </c>
+      <c r="O380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n"/>
+      <c r="B381" s="1" t="n"/>
+      <c r="C381" s="1" t="n"/>
+      <c r="D381" s="1" t="n"/>
+      <c r="E381" s="1" t="n"/>
+      <c r="F381" s="1" t="n"/>
+      <c r="G381" s="1" t="n"/>
+      <c r="H381" s="1" t="n"/>
+      <c r="I381" s="1" t="n"/>
+      <c r="J381" s="1" t="n"/>
+      <c r="K381" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L381" t="n">
+        <v>0.431372549019608</v>
+      </c>
+      <c r="M381" t="n">
+        <v>0.331374321880651</v>
+      </c>
+      <c r="N381" t="n">
+        <v>0.764705882352941</v>
+      </c>
+      <c r="O381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>1110_183430031971</t>
+        </is>
+      </c>
+      <c r="B382" s="1" t="inlineStr">
+        <is>
+          <t>Frankenstein</t>
+        </is>
+      </c>
+      <c r="C382" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D382" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E382" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F382" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="G382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H382" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I382" s="1" t="inlineStr">
+        <is>
+          <t>0.527 (0.082)</t>
+        </is>
+      </c>
+      <c r="J382" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K382" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L382" t="n">
+        <v>0.607142857142857</v>
+      </c>
+      <c r="M382" t="n">
+        <v>0.537190082644628</v>
+      </c>
+      <c r="N382" t="n">
+        <v>0.464285714285714</v>
+      </c>
+      <c r="O382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n"/>
+      <c r="B383" s="1" t="n"/>
+      <c r="C383" s="1" t="n"/>
+      <c r="D383" s="1" t="n"/>
+      <c r="E383" s="1" t="n"/>
+      <c r="F383" s="1" t="n"/>
+      <c r="G383" s="1" t="n"/>
+      <c r="H383" s="1" t="n"/>
+      <c r="I383" s="1" t="n"/>
+      <c r="J383" s="1" t="n"/>
+      <c r="K383" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L383" t="n">
+        <v>0.392857142857143</v>
+      </c>
+      <c r="M383" t="n">
+        <v>0.295336787564767</v>
+      </c>
+      <c r="N383" t="n">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="O383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n"/>
+      <c r="B384" s="1" t="n"/>
+      <c r="C384" s="1" t="n"/>
+      <c r="D384" s="1" t="n"/>
+      <c r="E384" s="1" t="n"/>
+      <c r="F384" s="1" t="n"/>
+      <c r="G384" s="1" t="n"/>
+      <c r="H384" s="1" t="n"/>
+      <c r="I384" s="1" t="n"/>
+      <c r="J384" s="1" t="n"/>
+      <c r="K384" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L384" t="n">
+        <v>0.543859649122807</v>
+      </c>
+      <c r="M384" t="n">
+        <v>0.466522678185745</v>
+      </c>
+      <c r="N384" t="n">
+        <v>0.508771929824561</v>
+      </c>
+      <c r="O384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n"/>
+      <c r="B385" s="1" t="n"/>
+      <c r="C385" s="1" t="n"/>
+      <c r="D385" s="1" t="n"/>
+      <c r="E385" s="1" t="n"/>
+      <c r="F385" s="1" t="n"/>
+      <c r="G385" s="1" t="n"/>
+      <c r="H385" s="1" t="n"/>
+      <c r="I385" s="1" t="n"/>
+      <c r="J385" s="1" t="n"/>
+      <c r="K385" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L385" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="M385" t="n">
+        <v>0.497945461337318</v>
+      </c>
+      <c r="N385" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n"/>
+      <c r="B386" s="1" t="n"/>
+      <c r="C386" s="1" t="n"/>
+      <c r="D386" s="1" t="n"/>
+      <c r="E386" s="1" t="n"/>
+      <c r="F386" s="1" t="n"/>
+      <c r="G386" s="1" t="n"/>
+      <c r="H386" s="1" t="n"/>
+      <c r="I386" s="1" t="n"/>
+      <c r="J386" s="1" t="n"/>
+      <c r="K386" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L386" t="n">
+        <v>0.517857142857143</v>
+      </c>
+      <c r="M386" t="n">
+        <v>0.433707865168539</v>
+      </c>
+      <c r="N386" t="n">
+        <v>0.553571428571429</v>
+      </c>
+      <c r="O386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>1110_190417248508</t>
+        </is>
+      </c>
+      <c r="B387" s="1" t="inlineStr">
+        <is>
+          <t>Frankenstein</t>
+        </is>
+      </c>
+      <c r="C387" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D387" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E387" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F387" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="G387" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H387" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I387" s="1" t="inlineStr">
+        <is>
+          <t>0.523 (0.081)</t>
+        </is>
+      </c>
+      <c r="J387" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K387" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L387" t="n">
+        <v>0.564516129032258</v>
+      </c>
+      <c r="M387" t="n">
+        <v>0.494717778448536</v>
+      </c>
+      <c r="N387" t="n">
+        <v>0.596774193548387</v>
+      </c>
+      <c r="O387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n"/>
+      <c r="B388" s="1" t="n"/>
+      <c r="C388" s="1" t="n"/>
+      <c r="D388" s="1" t="n"/>
+      <c r="E388" s="1" t="n"/>
+      <c r="F388" s="1" t="n"/>
+      <c r="G388" s="1" t="n"/>
+      <c r="H388" s="1" t="n"/>
+      <c r="I388" s="1" t="n"/>
+      <c r="J388" s="1" t="n"/>
+      <c r="K388" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L388" t="n">
+        <v>0.467741935483871</v>
+      </c>
+      <c r="M388" t="n">
+        <v>0.388706304152973</v>
+      </c>
+      <c r="N388" t="n">
+        <v>0.661290322580645</v>
+      </c>
+      <c r="O388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n"/>
+      <c r="B389" s="1" t="n"/>
+      <c r="C389" s="1" t="n"/>
+      <c r="D389" s="1" t="n"/>
+      <c r="E389" s="1" t="n"/>
+      <c r="F389" s="1" t="n"/>
+      <c r="G389" s="1" t="n"/>
+      <c r="H389" s="1" t="n"/>
+      <c r="I389" s="1" t="n"/>
+      <c r="J389" s="1" t="n"/>
+      <c r="K389" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L389" t="n">
+        <v>0.645161290322581</v>
+      </c>
+      <c r="M389" t="n">
+        <v>0.592714243057629</v>
+      </c>
+      <c r="N389" t="n">
+        <v>0.354838709677419</v>
+      </c>
+      <c r="O389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n"/>
+      <c r="B390" s="1" t="n"/>
+      <c r="C390" s="1" t="n"/>
+      <c r="D390" s="1" t="n"/>
+      <c r="E390" s="1" t="n"/>
+      <c r="F390" s="1" t="n"/>
+      <c r="G390" s="1" t="n"/>
+      <c r="H390" s="1" t="n"/>
+      <c r="I390" s="1" t="n"/>
+      <c r="J390" s="1" t="n"/>
+      <c r="K390" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L390" t="n">
+        <v>0.451612903225806</v>
+      </c>
+      <c r="M390" t="n">
+        <v>0.378171091445428</v>
+      </c>
+      <c r="N390" t="n">
+        <v>0.838709677419355</v>
+      </c>
+      <c r="O390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n"/>
+      <c r="B391" s="1" t="n"/>
+      <c r="C391" s="1" t="n"/>
+      <c r="D391" s="1" t="n"/>
+      <c r="E391" s="1" t="n"/>
+      <c r="F391" s="1" t="n"/>
+      <c r="G391" s="1" t="n"/>
+      <c r="H391" s="1" t="n"/>
+      <c r="I391" s="1" t="n"/>
+      <c r="J391" s="1" t="n"/>
+      <c r="K391" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L391" t="n">
+        <v>0.483870967741936</v>
+      </c>
+      <c r="M391" t="n">
+        <v>0.410926365795724</v>
+      </c>
+      <c r="N391" t="n">
+        <v>0.709677419354839</v>
+      </c>
+      <c r="O391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>1110_190417253887</t>
+        </is>
+      </c>
+      <c r="B392" s="1" t="inlineStr">
+        <is>
+          <t>Frankenstein</t>
+        </is>
+      </c>
+      <c r="C392" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D392" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E392" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F392" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="G392" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H392" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I392" s="1" t="inlineStr">
+        <is>
+          <t>0.720 (0.043)</t>
+        </is>
+      </c>
+      <c r="J392" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K392" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L392" t="n">
+        <v>0.67948717948718</v>
+      </c>
+      <c r="M392" t="n">
+        <v>0.640022152482924</v>
+      </c>
+      <c r="N392" t="n">
+        <v>0.551282051282051</v>
+      </c>
+      <c r="O392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n"/>
+      <c r="B393" s="1" t="n"/>
+      <c r="C393" s="1" t="n"/>
+      <c r="D393" s="1" t="n"/>
+      <c r="E393" s="1" t="n"/>
+      <c r="F393" s="1" t="n"/>
+      <c r="G393" s="1" t="n"/>
+      <c r="H393" s="1" t="n"/>
+      <c r="I393" s="1" t="n"/>
+      <c r="J393" s="1" t="n"/>
+      <c r="K393" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L393" t="n">
+        <v>0.717948717948718</v>
+      </c>
+      <c r="M393" t="n">
+        <v>0.684152401987852</v>
+      </c>
+      <c r="N393" t="n">
+        <v>0.294871794871795</v>
+      </c>
+      <c r="O393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n"/>
+      <c r="B394" s="1" t="n"/>
+      <c r="C394" s="1" t="n"/>
+      <c r="D394" s="1" t="n"/>
+      <c r="E394" s="1" t="n"/>
+      <c r="F394" s="1" t="n"/>
+      <c r="G394" s="1" t="n"/>
+      <c r="H394" s="1" t="n"/>
+      <c r="I394" s="1" t="n"/>
+      <c r="J394" s="1" t="n"/>
+      <c r="K394" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L394" t="n">
+        <v>0.7692307692307691</v>
+      </c>
+      <c r="M394" t="n">
+        <v>0.742290748898678</v>
+      </c>
+      <c r="N394" t="n">
+        <v>0.243589743589744</v>
+      </c>
+      <c r="O394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n"/>
+      <c r="B395" s="1" t="n"/>
+      <c r="C395" s="1" t="n"/>
+      <c r="D395" s="1" t="n"/>
+      <c r="E395" s="1" t="n"/>
+      <c r="F395" s="1" t="n"/>
+      <c r="G395" s="1" t="n"/>
+      <c r="H395" s="1" t="n"/>
+      <c r="I395" s="1" t="n"/>
+      <c r="J395" s="1" t="n"/>
+      <c r="K395" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L395" t="n">
+        <v>0.7564102564102561</v>
+      </c>
+      <c r="M395" t="n">
+        <v>0.728222996515679</v>
+      </c>
+      <c r="N395" t="n">
+        <v>0.256410256410256</v>
+      </c>
+      <c r="O395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n"/>
+      <c r="B396" s="1" t="n"/>
+      <c r="C396" s="1" t="n"/>
+      <c r="D396" s="1" t="n"/>
+      <c r="E396" s="1" t="n"/>
+      <c r="F396" s="1" t="n"/>
+      <c r="G396" s="1" t="n"/>
+      <c r="H396" s="1" t="n"/>
+      <c r="I396" s="1" t="n"/>
+      <c r="J396" s="1" t="n"/>
+      <c r="K396" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L396" t="n">
+        <v>0.675324675324675</v>
+      </c>
+      <c r="M396" t="n">
+        <v>0.636792452830189</v>
+      </c>
+      <c r="N396" t="n">
+        <v>0.350649350649351</v>
+      </c>
+      <c r="O396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>1110_183430042511</t>
+        </is>
+      </c>
+      <c r="B397" s="1" t="inlineStr">
+        <is>
+          <t>Frankenstein</t>
+        </is>
+      </c>
+      <c r="C397" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D397" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E397" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F397" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="G397" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H397" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I397" s="1" t="inlineStr">
+        <is>
+          <t>0.758 (0.035)</t>
+        </is>
+      </c>
+      <c r="J397" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K397" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L397" t="n">
+        <v>0.7435897435897439</v>
+      </c>
+      <c r="M397" t="n">
+        <v>0.712283290298783</v>
+      </c>
+      <c r="N397" t="n">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="O397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n"/>
+      <c r="B398" s="1" t="n"/>
+      <c r="C398" s="1" t="n"/>
+      <c r="D398" s="1" t="n"/>
+      <c r="E398" s="1" t="n"/>
+      <c r="F398" s="1" t="n"/>
+      <c r="G398" s="1" t="n"/>
+      <c r="H398" s="1" t="n"/>
+      <c r="I398" s="1" t="n"/>
+      <c r="J398" s="1" t="n"/>
+      <c r="K398" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L398" t="n">
+        <v>0.705128205128205</v>
+      </c>
+      <c r="M398" t="n">
+        <v>0.6695524037575979</v>
+      </c>
+      <c r="N398" t="n">
+        <v>0.307692307692308</v>
+      </c>
+      <c r="O398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n"/>
+      <c r="B399" s="1" t="n"/>
+      <c r="C399" s="1" t="n"/>
+      <c r="D399" s="1" t="n"/>
+      <c r="E399" s="1" t="n"/>
+      <c r="F399" s="1" t="n"/>
+      <c r="G399" s="1" t="n"/>
+      <c r="H399" s="1" t="n"/>
+      <c r="I399" s="1" t="n"/>
+      <c r="J399" s="1" t="n"/>
+      <c r="K399" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L399" t="n">
+        <v>0.782051282051282</v>
+      </c>
+      <c r="M399" t="n">
+        <v>0.756652596806754</v>
+      </c>
+      <c r="N399" t="n">
+        <v>0.217948717948718</v>
+      </c>
+      <c r="O399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n"/>
+      <c r="B400" s="1" t="n"/>
+      <c r="C400" s="1" t="n"/>
+      <c r="D400" s="1" t="n"/>
+      <c r="E400" s="1" t="n"/>
+      <c r="F400" s="1" t="n"/>
+      <c r="G400" s="1" t="n"/>
+      <c r="H400" s="1" t="n"/>
+      <c r="I400" s="1" t="n"/>
+      <c r="J400" s="1" t="n"/>
+      <c r="K400" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L400" t="n">
+        <v>0.794871794871795</v>
+      </c>
+      <c r="M400" t="n">
+        <v>0.7711351549605719</v>
+      </c>
+      <c r="N400" t="n">
+        <v>0.205128205128205</v>
+      </c>
+      <c r="O400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n"/>
+      <c r="B401" s="1" t="n"/>
+      <c r="C401" s="1" t="n"/>
+      <c r="D401" s="1" t="n"/>
+      <c r="E401" s="1" t="n"/>
+      <c r="F401" s="1" t="n"/>
+      <c r="G401" s="1" t="n"/>
+      <c r="H401" s="1" t="n"/>
+      <c r="I401" s="1" t="n"/>
+      <c r="J401" s="1" t="n"/>
+      <c r="K401" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="L401" t="n">
+        <v>0.766233766233766</v>
+      </c>
+      <c r="M401" t="n">
+        <v>0.738983050847458</v>
+      </c>
+      <c r="N401" t="n">
+        <v>0.272727272727273</v>
+      </c>
+      <c r="O401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>1218_195803653611</t>
+        </is>
+      </c>
+      <c r="B402" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C402" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D402" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E402" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F402" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="G402" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H402" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" s="1" t="inlineStr">
+        <is>
+          <t>0.392 (0.022)</t>
+        </is>
+      </c>
+      <c r="J402" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT32-6-6_38__1218_195803653611</t>
+        </is>
+      </c>
+      <c r="K402" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L402" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M402" t="n">
+        <v>0.3071077335717479</v>
+      </c>
+      <c r="N402" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O402" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n"/>
+      <c r="B403" s="1" t="n"/>
+      <c r="C403" s="1" t="n"/>
+      <c r="D403" s="1" t="n"/>
+      <c r="E403" s="1" t="n"/>
+      <c r="F403" s="1" t="n"/>
+      <c r="G403" s="1" t="n"/>
+      <c r="H403" s="1" t="n"/>
+      <c r="I403" s="1" t="n"/>
+      <c r="J403" s="1" t="n"/>
+      <c r="K403" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L403" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M403" t="n">
+        <v>0.3130955018834478</v>
+      </c>
+      <c r="N403" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="O403" t="n">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n"/>
+      <c r="B404" s="1" t="n"/>
+      <c r="C404" s="1" t="n"/>
+      <c r="D404" s="1" t="n"/>
+      <c r="E404" s="1" t="n"/>
+      <c r="F404" s="1" t="n"/>
+      <c r="G404" s="1" t="n"/>
+      <c r="H404" s="1" t="n"/>
+      <c r="I404" s="1" t="n"/>
+      <c r="J404" s="1" t="n"/>
+      <c r="K404" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0.3838383838383838</v>
+      </c>
+      <c r="M404" t="n">
+        <v>0.313827974093853</v>
+      </c>
+      <c r="N404" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="O404" t="n">
+        <v>2.252525252525253</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n"/>
+      <c r="B405" s="1" t="n"/>
+      <c r="C405" s="1" t="n"/>
+      <c r="D405" s="1" t="n"/>
+      <c r="E405" s="1" t="n"/>
+      <c r="F405" s="1" t="n"/>
+      <c r="G405" s="1" t="n"/>
+      <c r="H405" s="1" t="n"/>
+      <c r="I405" s="1" t="n"/>
+      <c r="J405" s="1" t="n"/>
+      <c r="K405" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L405" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="M405" t="n">
+        <v>0.357655093910074</v>
+      </c>
+      <c r="N405" t="n">
+        <v>0.9595959595959596</v>
+      </c>
+      <c r="O405" t="n">
+        <v>2.232323232323232</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>1218_195803092311</t>
+        </is>
+      </c>
+      <c r="B406" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C406" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D406" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E406" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F406" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="G406" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H406" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" s="1" t="inlineStr">
+        <is>
+          <t>0.463 (0.021)</t>
+        </is>
+      </c>
+      <c r="J406" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT32-6-6_33__1218_195803092311</t>
+        </is>
+      </c>
+      <c r="K406" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L406" t="n">
+        <v>0.4714285714285714</v>
+      </c>
+      <c r="M406" t="n">
+        <v>0.3890068412361406</v>
+      </c>
+      <c r="N406" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="O406" t="n">
+        <v>1.114285714285714</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n"/>
+      <c r="B407" s="1" t="n"/>
+      <c r="C407" s="1" t="n"/>
+      <c r="D407" s="1" t="n"/>
+      <c r="E407" s="1" t="n"/>
+      <c r="F407" s="1" t="n"/>
+      <c r="G407" s="1" t="n"/>
+      <c r="H407" s="1" t="n"/>
+      <c r="I407" s="1" t="n"/>
+      <c r="J407" s="1" t="n"/>
+      <c r="K407" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L407" t="n">
+        <v>0.4366197183098591</v>
+      </c>
+      <c r="M407" t="n">
+        <v>0.3424403797175272</v>
+      </c>
+      <c r="N407" t="n">
+        <v>0.676056338028169</v>
+      </c>
+      <c r="O407" t="n">
+        <v>0.9295774647887324</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n"/>
+      <c r="B408" s="1" t="n"/>
+      <c r="C408" s="1" t="n"/>
+      <c r="D408" s="1" t="n"/>
+      <c r="E408" s="1" t="n"/>
+      <c r="F408" s="1" t="n"/>
+      <c r="G408" s="1" t="n"/>
+      <c r="H408" s="1" t="n"/>
+      <c r="I408" s="1" t="n"/>
+      <c r="J408" s="1" t="n"/>
+      <c r="K408" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L408" t="n">
+        <v>0.4857142857142857</v>
+      </c>
+      <c r="M408" t="n">
+        <v>0.3959731543624161</v>
+      </c>
+      <c r="N408" t="n">
+        <v>0.6142857142857143</v>
+      </c>
+      <c r="O408" t="n">
+        <v>0.8428571428571429</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n"/>
+      <c r="B409" s="1" t="n"/>
+      <c r="C409" s="1" t="n"/>
+      <c r="D409" s="1" t="n"/>
+      <c r="E409" s="1" t="n"/>
+      <c r="F409" s="1" t="n"/>
+      <c r="G409" s="1" t="n"/>
+      <c r="H409" s="1" t="n"/>
+      <c r="I409" s="1" t="n"/>
+      <c r="J409" s="1" t="n"/>
+      <c r="K409" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L409" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="M409" t="n">
+        <v>0.3637885673283904</v>
+      </c>
+      <c r="N409" t="n">
+        <v>0.6714285714285714</v>
+      </c>
+      <c r="O409" t="n">
+        <v>0.9571428571428572</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>1218_195803287873</t>
+        </is>
+      </c>
+      <c r="B410" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C410" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D410" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E410" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F410" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="G410" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H410" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" s="1" t="inlineStr">
+        <is>
+          <t>0.513 (0.026)</t>
+        </is>
+      </c>
+      <c r="J410" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT32-6-6_34__1218_195803287873</t>
+        </is>
+      </c>
+      <c r="K410" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L410" t="n">
+        <v>0.5512820512820513</v>
+      </c>
+      <c r="M410" t="n">
+        <v>0.4830524521870858</v>
+      </c>
+      <c r="N410" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="O410" t="n">
+        <v>1.128205128205128</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n"/>
+      <c r="B411" s="1" t="n"/>
+      <c r="C411" s="1" t="n"/>
+      <c r="D411" s="1" t="n"/>
+      <c r="E411" s="1" t="n"/>
+      <c r="F411" s="1" t="n"/>
+      <c r="G411" s="1" t="n"/>
+      <c r="H411" s="1" t="n"/>
+      <c r="I411" s="1" t="n"/>
+      <c r="J411" s="1" t="n"/>
+      <c r="K411" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L411" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M411" t="n">
+        <v>0.4312955692652832</v>
+      </c>
+      <c r="N411" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="O411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n"/>
+      <c r="B412" s="1" t="n"/>
+      <c r="C412" s="1" t="n"/>
+      <c r="D412" s="1" t="n"/>
+      <c r="E412" s="1" t="n"/>
+      <c r="F412" s="1" t="n"/>
+      <c r="G412" s="1" t="n"/>
+      <c r="H412" s="1" t="n"/>
+      <c r="I412" s="1" t="n"/>
+      <c r="J412" s="1" t="n"/>
+      <c r="K412" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L412" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="M412" t="n">
+        <v>0.4315135030114631</v>
+      </c>
+      <c r="N412" t="n">
+        <v>0.7012987012987013</v>
+      </c>
+      <c r="O412" t="n">
+        <v>1.532467532467533</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n"/>
+      <c r="B413" s="1" t="n"/>
+      <c r="C413" s="1" t="n"/>
+      <c r="D413" s="1" t="n"/>
+      <c r="E413" s="1" t="n"/>
+      <c r="F413" s="1" t="n"/>
+      <c r="G413" s="1" t="n"/>
+      <c r="H413" s="1" t="n"/>
+      <c r="I413" s="1" t="n"/>
+      <c r="J413" s="1" t="n"/>
+      <c r="K413" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L413" t="n">
+        <v>0.4935064935064935</v>
+      </c>
+      <c r="M413" t="n">
+        <v>0.4185866408518878</v>
+      </c>
+      <c r="N413" t="n">
+        <v>0.7662337662337663</v>
+      </c>
+      <c r="O413" t="n">
+        <v>1.753246753246753</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>1218_195802901258</t>
+        </is>
+      </c>
+      <c r="B414" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C414" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D414" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E414" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F414" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="G414" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H414" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" s="1" t="inlineStr">
+        <is>
+          <t>0.430 (0.062)</t>
+        </is>
+      </c>
+      <c r="J414" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT32-6-6_31__1218_195802901258</t>
+        </is>
+      </c>
+      <c r="K414" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L414" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M414" t="n">
+        <v>0.3016528925619834</v>
+      </c>
+      <c r="N414" t="n">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="O414" t="n">
+        <v>1.107692307692308</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n"/>
+      <c r="B415" s="1" t="n"/>
+      <c r="C415" s="1" t="n"/>
+      <c r="D415" s="1" t="n"/>
+      <c r="E415" s="1" t="n"/>
+      <c r="F415" s="1" t="n"/>
+      <c r="G415" s="1" t="n"/>
+      <c r="H415" s="1" t="n"/>
+      <c r="I415" s="1" t="n"/>
+      <c r="J415" s="1" t="n"/>
+      <c r="K415" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L415" t="n">
+        <v>0.5230769230769231</v>
+      </c>
+      <c r="M415" t="n">
+        <v>0.4413640144164125</v>
+      </c>
+      <c r="N415" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="O415" t="n">
+        <v>0.8307692307692308</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n"/>
+      <c r="B416" s="1" t="n"/>
+      <c r="C416" s="1" t="n"/>
+      <c r="D416" s="1" t="n"/>
+      <c r="E416" s="1" t="n"/>
+      <c r="F416" s="1" t="n"/>
+      <c r="G416" s="1" t="n"/>
+      <c r="H416" s="1" t="n"/>
+      <c r="I416" s="1" t="n"/>
+      <c r="J416" s="1" t="n"/>
+      <c r="K416" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L416" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="M416" t="n">
+        <v>0.2975158867706528</v>
+      </c>
+      <c r="N416" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="O416" t="n">
+        <v>1.6875</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n"/>
+      <c r="B417" s="1" t="n"/>
+      <c r="C417" s="1" t="n"/>
+      <c r="D417" s="1" t="n"/>
+      <c r="E417" s="1" t="n"/>
+      <c r="F417" s="1" t="n"/>
+      <c r="G417" s="1" t="n"/>
+      <c r="H417" s="1" t="n"/>
+      <c r="I417" s="1" t="n"/>
+      <c r="J417" s="1" t="n"/>
+      <c r="K417" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L417" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="M417" t="n">
+        <v>0.2856325128792215</v>
+      </c>
+      <c r="N417" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O417" t="n">
+        <v>1.21875</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>1218_195803502348</t>
+        </is>
+      </c>
+      <c r="B418" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C418" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D418" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E418" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F418" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="G418" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H418" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" s="1" t="inlineStr">
+        <is>
+          <t>0.679 (0.112)</t>
+        </is>
+      </c>
+      <c r="J418" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT32-6-6_37__1218_195803502348</t>
+        </is>
+      </c>
+      <c r="K418" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L418" t="n">
+        <v>0.845360824742268</v>
+      </c>
+      <c r="M418" t="n">
+        <v>0.8266205910390848</v>
+      </c>
+      <c r="N418" t="n">
+        <v>0.154639175257732</v>
+      </c>
+      <c r="O418" t="n">
+        <v>0.154639175257732</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n"/>
+      <c r="B419" s="1" t="n"/>
+      <c r="C419" s="1" t="n"/>
+      <c r="D419" s="1" t="n"/>
+      <c r="E419" s="1" t="n"/>
+      <c r="F419" s="1" t="n"/>
+      <c r="G419" s="1" t="n"/>
+      <c r="H419" s="1" t="n"/>
+      <c r="I419" s="1" t="n"/>
+      <c r="J419" s="1" t="n"/>
+      <c r="K419" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L419" t="n">
+        <v>0.6020408163265306</v>
+      </c>
+      <c r="M419" t="n">
+        <v>0.5564581640942324</v>
+      </c>
+      <c r="N419" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="O419" t="n">
+        <v>1.591836734693878</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n"/>
+      <c r="B420" s="1" t="n"/>
+      <c r="C420" s="1" t="n"/>
+      <c r="D420" s="1" t="n"/>
+      <c r="E420" s="1" t="n"/>
+      <c r="F420" s="1" t="n"/>
+      <c r="G420" s="1" t="n"/>
+      <c r="H420" s="1" t="n"/>
+      <c r="I420" s="1" t="n"/>
+      <c r="J420" s="1" t="n"/>
+      <c r="K420" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L420" t="n">
+        <v>0.6391752577319587</v>
+      </c>
+      <c r="M420" t="n">
+        <v>0.5968412302576891</v>
+      </c>
+      <c r="N420" t="n">
+        <v>0.5051546391752577</v>
+      </c>
+      <c r="O420" t="n">
+        <v>1.082474226804124</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n"/>
+      <c r="B421" s="1" t="n"/>
+      <c r="C421" s="1" t="n"/>
+      <c r="D421" s="1" t="n"/>
+      <c r="E421" s="1" t="n"/>
+      <c r="F421" s="1" t="n"/>
+      <c r="G421" s="1" t="n"/>
+      <c r="H421" s="1" t="n"/>
+      <c r="I421" s="1" t="n"/>
+      <c r="J421" s="1" t="n"/>
+      <c r="K421" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L421" t="n">
+        <v>0.6288659793814433</v>
+      </c>
+      <c r="M421" t="n">
+        <v>0.5865008880994671</v>
+      </c>
+      <c r="N421" t="n">
+        <v>0.4742268041237113</v>
+      </c>
+      <c r="O421" t="n">
+        <v>0.9072164948453608</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>1218_220640537197</t>
+        </is>
+      </c>
+      <c r="B422" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C422" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D422" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E422" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F422" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="G422" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H422" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" s="1" t="inlineStr">
+        <is>
+          <t>0.455 (0.076)</t>
+        </is>
+      </c>
+      <c r="J422" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT32-10-6_33__1218_220640537197</t>
+        </is>
+      </c>
+      <c r="K422" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L422" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="M422" t="n">
+        <v>0.2674418604651163</v>
+      </c>
+      <c r="N422" t="n">
+        <v>0.8714285714285714</v>
+      </c>
+      <c r="O422" t="n">
+        <v>1.357142857142857</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n"/>
+      <c r="B423" s="1" t="n"/>
+      <c r="C423" s="1" t="n"/>
+      <c r="D423" s="1" t="n"/>
+      <c r="E423" s="1" t="n"/>
+      <c r="F423" s="1" t="n"/>
+      <c r="G423" s="1" t="n"/>
+      <c r="H423" s="1" t="n"/>
+      <c r="I423" s="1" t="n"/>
+      <c r="J423" s="1" t="n"/>
+      <c r="K423" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L423" t="n">
+        <v>0.4647887323943662</v>
+      </c>
+      <c r="M423" t="n">
+        <v>0.3786273606632887</v>
+      </c>
+      <c r="N423" t="n">
+        <v>0.6338028169014085</v>
+      </c>
+      <c r="O423" t="n">
+        <v>0.8591549295774648</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n"/>
+      <c r="B424" s="1" t="n"/>
+      <c r="C424" s="1" t="n"/>
+      <c r="D424" s="1" t="n"/>
+      <c r="E424" s="1" t="n"/>
+      <c r="F424" s="1" t="n"/>
+      <c r="G424" s="1" t="n"/>
+      <c r="H424" s="1" t="n"/>
+      <c r="I424" s="1" t="n"/>
+      <c r="J424" s="1" t="n"/>
+      <c r="K424" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L424" t="n">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="M424" t="n">
+        <v>0.4718226833294034</v>
+      </c>
+      <c r="N424" t="n">
+        <v>0.6142857142857143</v>
+      </c>
+      <c r="O424" t="n">
+        <v>0.9571428571428572</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n"/>
+      <c r="B425" s="1" t="n"/>
+      <c r="C425" s="1" t="n"/>
+      <c r="D425" s="1" t="n"/>
+      <c r="E425" s="1" t="n"/>
+      <c r="F425" s="1" t="n"/>
+      <c r="G425" s="1" t="n"/>
+      <c r="H425" s="1" t="n"/>
+      <c r="I425" s="1" t="n"/>
+      <c r="J425" s="1" t="n"/>
+      <c r="K425" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L425" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="M425" t="n">
+        <v>0.3636363636363635</v>
+      </c>
+      <c r="N425" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O425" t="n">
+        <v>1.328571428571429</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>1218_220641147289</t>
+        </is>
+      </c>
+      <c r="B426" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C426" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D426" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E426" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F426" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="G426" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H426" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" s="1" t="inlineStr">
+        <is>
+          <t>0.417 (0.042)</t>
+        </is>
+      </c>
+      <c r="J426" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT32-10-6_38__1218_220641147289</t>
+        </is>
+      </c>
+      <c r="K426" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L426" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M426" t="n">
+        <v>0.375487900078064</v>
+      </c>
+      <c r="N426" t="n">
+        <v>1</v>
+      </c>
+      <c r="O426" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n"/>
+      <c r="B427" s="1" t="n"/>
+      <c r="C427" s="1" t="n"/>
+      <c r="D427" s="1" t="n"/>
+      <c r="E427" s="1" t="n"/>
+      <c r="F427" s="1" t="n"/>
+      <c r="G427" s="1" t="n"/>
+      <c r="H427" s="1" t="n"/>
+      <c r="I427" s="1" t="n"/>
+      <c r="J427" s="1" t="n"/>
+      <c r="K427" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L427" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M427" t="n">
+        <v>0.2919570748976654</v>
+      </c>
+      <c r="N427" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O427" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n"/>
+      <c r="B428" s="1" t="n"/>
+      <c r="C428" s="1" t="n"/>
+      <c r="D428" s="1" t="n"/>
+      <c r="E428" s="1" t="n"/>
+      <c r="F428" s="1" t="n"/>
+      <c r="G428" s="1" t="n"/>
+      <c r="H428" s="1" t="n"/>
+      <c r="I428" s="1" t="n"/>
+      <c r="J428" s="1" t="n"/>
+      <c r="K428" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L428" t="n">
+        <v>0.4141414141414141</v>
+      </c>
+      <c r="M428" t="n">
+        <v>0.3500113199003849</v>
+      </c>
+      <c r="N428" t="n">
+        <v>0.9191919191919192</v>
+      </c>
+      <c r="O428" t="n">
+        <v>2.333333333333333</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n"/>
+      <c r="B429" s="1" t="n"/>
+      <c r="C429" s="1" t="n"/>
+      <c r="D429" s="1" t="n"/>
+      <c r="E429" s="1" t="n"/>
+      <c r="F429" s="1" t="n"/>
+      <c r="G429" s="1" t="n"/>
+      <c r="H429" s="1" t="n"/>
+      <c r="I429" s="1" t="n"/>
+      <c r="J429" s="1" t="n"/>
+      <c r="K429" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L429" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="M429" t="n">
+        <v>0.3935337492909813</v>
+      </c>
+      <c r="N429" t="n">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="O429" t="n">
+        <v>1.434343434343434</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>1218_220640734292</t>
+        </is>
+      </c>
+      <c r="B430" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C430" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D430" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E430" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F430" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="G430" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H430" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" s="1" t="inlineStr">
+        <is>
+          <t>0.493 (0.047)</t>
+        </is>
+      </c>
+      <c r="J430" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT32-10-6_34__1218_220640734292</t>
+        </is>
+      </c>
+      <c r="K430" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L430" t="n">
+        <v>0.4743589743589743</v>
+      </c>
+      <c r="M430" t="n">
+        <v>0.3986461075592328</v>
+      </c>
+      <c r="N430" t="n">
+        <v>0.6794871794871795</v>
+      </c>
+      <c r="O430" t="n">
+        <v>1.141025641025641</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n"/>
+      <c r="B431" s="1" t="n"/>
+      <c r="C431" s="1" t="n"/>
+      <c r="D431" s="1" t="n"/>
+      <c r="E431" s="1" t="n"/>
+      <c r="F431" s="1" t="n"/>
+      <c r="G431" s="1" t="n"/>
+      <c r="H431" s="1" t="n"/>
+      <c r="I431" s="1" t="n"/>
+      <c r="J431" s="1" t="n"/>
+      <c r="K431" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L431" t="n">
+        <v>0.5512820512820513</v>
+      </c>
+      <c r="M431" t="n">
+        <v>0.4889554473979782</v>
+      </c>
+      <c r="N431" t="n">
+        <v>0.4743589743589743</v>
+      </c>
+      <c r="O431" t="n">
+        <v>0.5256410256410257</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n"/>
+      <c r="B432" s="1" t="n"/>
+      <c r="C432" s="1" t="n"/>
+      <c r="D432" s="1" t="n"/>
+      <c r="E432" s="1" t="n"/>
+      <c r="F432" s="1" t="n"/>
+      <c r="G432" s="1" t="n"/>
+      <c r="H432" s="1" t="n"/>
+      <c r="I432" s="1" t="n"/>
+      <c r="J432" s="1" t="n"/>
+      <c r="K432" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L432" t="n">
+        <v>0.4415584415584415</v>
+      </c>
+      <c r="M432" t="n">
+        <v>0.3548324240062354</v>
+      </c>
+      <c r="N432" t="n">
+        <v>0.7532467532467533</v>
+      </c>
+      <c r="O432" t="n">
+        <v>1.298701298701299</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n"/>
+      <c r="B433" s="1" t="n"/>
+      <c r="C433" s="1" t="n"/>
+      <c r="D433" s="1" t="n"/>
+      <c r="E433" s="1" t="n"/>
+      <c r="F433" s="1" t="n"/>
+      <c r="G433" s="1" t="n"/>
+      <c r="H433" s="1" t="n"/>
+      <c r="I433" s="1" t="n"/>
+      <c r="J433" s="1" t="n"/>
+      <c r="K433" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L433" t="n">
+        <v>0.5064935064935064</v>
+      </c>
+      <c r="M433" t="n">
+        <v>0.4341520015470897</v>
+      </c>
+      <c r="N433" t="n">
+        <v>0.8441558441558441</v>
+      </c>
+      <c r="O433" t="n">
+        <v>2.324675324675325</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>1218_220640954691</t>
+        </is>
+      </c>
+      <c r="B434" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C434" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D434" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E434" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F434" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="G434" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H434" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" s="1" t="inlineStr">
+        <is>
+          <t>0.689 (0.063)</t>
+        </is>
+      </c>
+      <c r="J434" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT32-10-6_37__1218_220640954691</t>
+        </is>
+      </c>
+      <c r="K434" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L434" t="n">
+        <v>0.7835051546391752</v>
+      </c>
+      <c r="M434" t="n">
+        <v>0.7577019150707743</v>
+      </c>
+      <c r="N434" t="n">
+        <v>0.2268041237113402</v>
+      </c>
+      <c r="O434" t="n">
+        <v>0.2474226804123711</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n"/>
+      <c r="B435" s="1" t="n"/>
+      <c r="C435" s="1" t="n"/>
+      <c r="D435" s="1" t="n"/>
+      <c r="E435" s="1" t="n"/>
+      <c r="F435" s="1" t="n"/>
+      <c r="G435" s="1" t="n"/>
+      <c r="H435" s="1" t="n"/>
+      <c r="I435" s="1" t="n"/>
+      <c r="J435" s="1" t="n"/>
+      <c r="K435" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L435" t="n">
+        <v>0.6530612244897959</v>
+      </c>
+      <c r="M435" t="n">
+        <v>0.6139049826187717</v>
+      </c>
+      <c r="N435" t="n">
+        <v>0.6020408163265306</v>
+      </c>
+      <c r="O435" t="n">
+        <v>2.295918367346939</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n"/>
+      <c r="B436" s="1" t="n"/>
+      <c r="C436" s="1" t="n"/>
+      <c r="D436" s="1" t="n"/>
+      <c r="E436" s="1" t="n"/>
+      <c r="F436" s="1" t="n"/>
+      <c r="G436" s="1" t="n"/>
+      <c r="H436" s="1" t="n"/>
+      <c r="I436" s="1" t="n"/>
+      <c r="J436" s="1" t="n"/>
+      <c r="K436" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L436" t="n">
+        <v>0.6597938144329897</v>
+      </c>
+      <c r="M436" t="n">
+        <v>0.6203297354999407</v>
+      </c>
+      <c r="N436" t="n">
+        <v>0.422680412371134</v>
+      </c>
+      <c r="O436" t="n">
+        <v>0.6701030927835051</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n"/>
+      <c r="B437" s="1" t="n"/>
+      <c r="C437" s="1" t="n"/>
+      <c r="D437" s="1" t="n"/>
+      <c r="E437" s="1" t="n"/>
+      <c r="F437" s="1" t="n"/>
+      <c r="G437" s="1" t="n"/>
+      <c r="H437" s="1" t="n"/>
+      <c r="I437" s="1" t="n"/>
+      <c r="J437" s="1" t="n"/>
+      <c r="K437" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L437" t="n">
+        <v>0.6597938144329897</v>
+      </c>
+      <c r="M437" t="n">
+        <v>0.6205097806757558</v>
+      </c>
+      <c r="N437" t="n">
+        <v>0.5257731958762887</v>
+      </c>
+      <c r="O437" t="n">
+        <v>1.556701030927835</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>1218_220640358042</t>
+        </is>
+      </c>
+      <c r="B438" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C438" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="D438" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="E438" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F438" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="G438" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H438" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" s="1" t="inlineStr">
+        <is>
+          <t>0.453 (0.031)</t>
+        </is>
+      </c>
+      <c r="J438" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT32-10-6_31__1218_220640358042</t>
+        </is>
+      </c>
+      <c r="K438" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L438" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="M438" t="n">
+        <v>0.3648799553322166</v>
+      </c>
+      <c r="N438" t="n">
+        <v>0.676923076923077</v>
+      </c>
+      <c r="O438" t="n">
+        <v>0.9846153846153847</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n"/>
+      <c r="B439" s="1" t="n"/>
+      <c r="C439" s="1" t="n"/>
+      <c r="D439" s="1" t="n"/>
+      <c r="E439" s="1" t="n"/>
+      <c r="F439" s="1" t="n"/>
+      <c r="G439" s="1" t="n"/>
+      <c r="H439" s="1" t="n"/>
+      <c r="I439" s="1" t="n"/>
+      <c r="J439" s="1" t="n"/>
+      <c r="K439" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L439" t="n">
+        <v>0.4923076923076923</v>
+      </c>
+      <c r="M439" t="n">
+        <v>0.4090909090909091</v>
+      </c>
+      <c r="N439" t="n">
+        <v>0.676923076923077</v>
+      </c>
+      <c r="O439" t="n">
+        <v>1.046153846153846</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n"/>
+      <c r="B440" s="1" t="n"/>
+      <c r="C440" s="1" t="n"/>
+      <c r="D440" s="1" t="n"/>
+      <c r="E440" s="1" t="n"/>
+      <c r="F440" s="1" t="n"/>
+      <c r="G440" s="1" t="n"/>
+      <c r="H440" s="1" t="n"/>
+      <c r="I440" s="1" t="n"/>
+      <c r="J440" s="1" t="n"/>
+      <c r="K440" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L440" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="M440" t="n">
+        <v>0.3567839195979899</v>
+      </c>
+      <c r="N440" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="O440" t="n">
+        <v>1.0625</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n"/>
+      <c r="B441" s="1" t="n"/>
+      <c r="C441" s="1" t="n"/>
+      <c r="D441" s="1" t="n"/>
+      <c r="E441" s="1" t="n"/>
+      <c r="F441" s="1" t="n"/>
+      <c r="G441" s="1" t="n"/>
+      <c r="H441" s="1" t="n"/>
+      <c r="I441" s="1" t="n"/>
+      <c r="J441" s="1" t="n"/>
+      <c r="K441" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L441" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="M441" t="n">
+        <v>0.3179723502304147</v>
+      </c>
+      <c r="N441" t="n">
+        <v>0.796875</v>
+      </c>
+      <c r="O441" t="n">
+        <v>1.453125</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>1218_225615423116</t>
+        </is>
+      </c>
+      <c r="B442" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C442" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D442" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E442" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F442" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="G442" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H442" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" s="1" t="inlineStr">
+        <is>
+          <t>0.528 (0.035)</t>
+        </is>
+      </c>
+      <c r="J442" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT16-12-6_34__1218_225615423116</t>
+        </is>
+      </c>
+      <c r="K442" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L442" t="n">
+        <v>0.5256410256410257</v>
+      </c>
+      <c r="M442" t="n">
+        <v>0.4586381541924591</v>
+      </c>
+      <c r="N442" t="n">
+        <v>0.6025641025641025</v>
+      </c>
+      <c r="O442" t="n">
+        <v>1.012820512820513</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n"/>
+      <c r="B443" s="1" t="n"/>
+      <c r="C443" s="1" t="n"/>
+      <c r="D443" s="1" t="n"/>
+      <c r="E443" s="1" t="n"/>
+      <c r="F443" s="1" t="n"/>
+      <c r="G443" s="1" t="n"/>
+      <c r="H443" s="1" t="n"/>
+      <c r="I443" s="1" t="n"/>
+      <c r="J443" s="1" t="n"/>
+      <c r="K443" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L443" t="n">
+        <v>0.5641025641025641</v>
+      </c>
+      <c r="M443" t="n">
+        <v>0.5022522522522522</v>
+      </c>
+      <c r="N443" t="n">
+        <v>0.5641025641025641</v>
+      </c>
+      <c r="O443" t="n">
+        <v>1.230769230769231</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n"/>
+      <c r="B444" s="1" t="n"/>
+      <c r="C444" s="1" t="n"/>
+      <c r="D444" s="1" t="n"/>
+      <c r="E444" s="1" t="n"/>
+      <c r="F444" s="1" t="n"/>
+      <c r="G444" s="1" t="n"/>
+      <c r="H444" s="1" t="n"/>
+      <c r="I444" s="1" t="n"/>
+      <c r="J444" s="1" t="n"/>
+      <c r="K444" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L444" t="n">
+        <v>0.4935064935064935</v>
+      </c>
+      <c r="M444" t="n">
+        <v>0.4170064065230052</v>
+      </c>
+      <c r="N444" t="n">
+        <v>0.6103896103896104</v>
+      </c>
+      <c r="O444" t="n">
+        <v>0.9220779220779221</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>1218_232000785946</t>
+        </is>
+      </c>
+      <c r="B445" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C445" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D445" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E445" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F445" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="G445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H445" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" s="1" t="inlineStr">
+        <is>
+          <t>0.420 (0.072)</t>
+        </is>
+      </c>
+      <c r="J445" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT16-12-6_38__1218_232000785946</t>
+        </is>
+      </c>
+      <c r="K445" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L445" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="M445" t="n">
+        <v>0.434213445751054</v>
+      </c>
+      <c r="N445" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O445" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n"/>
+      <c r="B446" s="1" t="n"/>
+      <c r="C446" s="1" t="n"/>
+      <c r="D446" s="1" t="n"/>
+      <c r="E446" s="1" t="n"/>
+      <c r="F446" s="1" t="n"/>
+      <c r="G446" s="1" t="n"/>
+      <c r="H446" s="1" t="n"/>
+      <c r="I446" s="1" t="n"/>
+      <c r="J446" s="1" t="n"/>
+      <c r="K446" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L446" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M446" t="n">
+        <v>0.2455342283368469</v>
+      </c>
+      <c r="N446" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="O446" t="n">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n"/>
+      <c r="B447" s="1" t="n"/>
+      <c r="C447" s="1" t="n"/>
+      <c r="D447" s="1" t="n"/>
+      <c r="E447" s="1" t="n"/>
+      <c r="F447" s="1" t="n"/>
+      <c r="G447" s="1" t="n"/>
+      <c r="H447" s="1" t="n"/>
+      <c r="I447" s="1" t="n"/>
+      <c r="J447" s="1" t="n"/>
+      <c r="K447" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L447" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="M447" t="n">
+        <v>0.3575819672131149</v>
+      </c>
+      <c r="N447" t="n">
+        <v>0.9191919191919192</v>
+      </c>
+      <c r="O447" t="n">
+        <v>1.909090909090909</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n"/>
+      <c r="B448" s="1" t="n"/>
+      <c r="C448" s="1" t="n"/>
+      <c r="D448" s="1" t="n"/>
+      <c r="E448" s="1" t="n"/>
+      <c r="F448" s="1" t="n"/>
+      <c r="G448" s="1" t="n"/>
+      <c r="H448" s="1" t="n"/>
+      <c r="I448" s="1" t="n"/>
+      <c r="J448" s="1" t="n"/>
+      <c r="K448" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L448" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="M448" t="n">
+        <v>0.3835616438356165</v>
+      </c>
+      <c r="N448" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="O448" t="n">
+        <v>2.242424242424242</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>1218_231959998611</t>
+        </is>
+      </c>
+      <c r="B449" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C449" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D449" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E449" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F449" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="G449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H449" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" s="1" t="inlineStr">
+        <is>
+          <t>0.454 (0.082)</t>
+        </is>
+      </c>
+      <c r="J449" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT16-12-6_31__1218_231959998611</t>
+        </is>
+      </c>
+      <c r="K449" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L449" t="n">
+        <v>0.3384615384615385</v>
+      </c>
+      <c r="M449" t="n">
+        <v>0.2218819599109132</v>
+      </c>
+      <c r="N449" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="O449" t="n">
+        <v>1.692307692307692</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n"/>
+      <c r="B450" s="1" t="n"/>
+      <c r="C450" s="1" t="n"/>
+      <c r="D450" s="1" t="n"/>
+      <c r="E450" s="1" t="n"/>
+      <c r="F450" s="1" t="n"/>
+      <c r="G450" s="1" t="n"/>
+      <c r="H450" s="1" t="n"/>
+      <c r="I450" s="1" t="n"/>
+      <c r="J450" s="1" t="n"/>
+      <c r="K450" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L450" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="M450" t="n">
+        <v>0.3691070438158625</v>
+      </c>
+      <c r="N450" t="n">
+        <v>0.7384615384615385</v>
+      </c>
+      <c r="O450" t="n">
+        <v>1.261538461538461</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n"/>
+      <c r="B451" s="1" t="n"/>
+      <c r="C451" s="1" t="n"/>
+      <c r="D451" s="1" t="n"/>
+      <c r="E451" s="1" t="n"/>
+      <c r="F451" s="1" t="n"/>
+      <c r="G451" s="1" t="n"/>
+      <c r="H451" s="1" t="n"/>
+      <c r="I451" s="1" t="n"/>
+      <c r="J451" s="1" t="n"/>
+      <c r="K451" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L451" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="M451" t="n">
+        <v>0.4446051489730981</v>
+      </c>
+      <c r="N451" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="O451" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n"/>
+      <c r="B452" s="1" t="n"/>
+      <c r="C452" s="1" t="n"/>
+      <c r="D452" s="1" t="n"/>
+      <c r="E452" s="1" t="n"/>
+      <c r="F452" s="1" t="n"/>
+      <c r="G452" s="1" t="n"/>
+      <c r="H452" s="1" t="n"/>
+      <c r="I452" s="1" t="n"/>
+      <c r="J452" s="1" t="n"/>
+      <c r="K452" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L452" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="M452" t="n">
+        <v>0.3865814696485623</v>
+      </c>
+      <c r="N452" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="O452" t="n">
+        <v>1.015625</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>1218_225615052914</t>
+        </is>
+      </c>
+      <c r="B453" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C453" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D453" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E453" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F453" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="G453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H453" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" s="1" t="inlineStr">
+        <is>
+          <t>0.473 (0.083)</t>
+        </is>
+      </c>
+      <c r="J453" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT16-12-6_31__1218_225615052914</t>
+        </is>
+      </c>
+      <c r="K453" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L453" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M453" t="n">
+        <v>0.3035714285714286</v>
+      </c>
+      <c r="N453" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O453" t="n">
+        <v>1.323076923076923</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n"/>
+      <c r="B454" s="1" t="n"/>
+      <c r="C454" s="1" t="n"/>
+      <c r="D454" s="1" t="n"/>
+      <c r="E454" s="1" t="n"/>
+      <c r="F454" s="1" t="n"/>
+      <c r="G454" s="1" t="n"/>
+      <c r="H454" s="1" t="n"/>
+      <c r="I454" s="1" t="n"/>
+      <c r="J454" s="1" t="n"/>
+      <c r="K454" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L454" t="n">
+        <v>0.5692307692307692</v>
+      </c>
+      <c r="M454" t="n">
+        <v>0.4941634241245135</v>
+      </c>
+      <c r="N454" t="n">
+        <v>0.5230769230769231</v>
+      </c>
+      <c r="O454" t="n">
+        <v>0.7076923076923077</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n"/>
+      <c r="B455" s="1" t="n"/>
+      <c r="C455" s="1" t="n"/>
+      <c r="D455" s="1" t="n"/>
+      <c r="E455" s="1" t="n"/>
+      <c r="F455" s="1" t="n"/>
+      <c r="G455" s="1" t="n"/>
+      <c r="H455" s="1" t="n"/>
+      <c r="I455" s="1" t="n"/>
+      <c r="J455" s="1" t="n"/>
+      <c r="K455" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L455" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="M455" t="n">
+        <v>0.4329808516719063</v>
+      </c>
+      <c r="N455" t="n">
+        <v>0.765625</v>
+      </c>
+      <c r="O455" t="n">
+        <v>1.765625</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n"/>
+      <c r="B456" s="1" t="n"/>
+      <c r="C456" s="1" t="n"/>
+      <c r="D456" s="1" t="n"/>
+      <c r="E456" s="1" t="n"/>
+      <c r="F456" s="1" t="n"/>
+      <c r="G456" s="1" t="n"/>
+      <c r="H456" s="1" t="n"/>
+      <c r="I456" s="1" t="n"/>
+      <c r="J456" s="1" t="n"/>
+      <c r="K456" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L456" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="M456" t="n">
+        <v>0.30672748004561</v>
+      </c>
+      <c r="N456" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="O456" t="n">
+        <v>1.1875</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>1218_232000597262</t>
+        </is>
+      </c>
+      <c r="B457" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C457" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D457" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E457" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F457" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="G457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H457" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I457" s="1" t="inlineStr">
+        <is>
+          <t>0.686 (0.056)</t>
+        </is>
+      </c>
+      <c r="J457" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT16-12-6_37__1218_232000597262</t>
+        </is>
+      </c>
+      <c r="K457" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L457" t="n">
+        <v>0.6907216494845361</v>
+      </c>
+      <c r="M457" t="n">
+        <v>0.65521327014218</v>
+      </c>
+      <c r="N457" t="n">
+        <v>0.5670103092783505</v>
+      </c>
+      <c r="O457" t="n">
+        <v>2.422680412371134</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n"/>
+      <c r="B458" s="1" t="n"/>
+      <c r="C458" s="1" t="n"/>
+      <c r="D458" s="1" t="n"/>
+      <c r="E458" s="1" t="n"/>
+      <c r="F458" s="1" t="n"/>
+      <c r="G458" s="1" t="n"/>
+      <c r="H458" s="1" t="n"/>
+      <c r="I458" s="1" t="n"/>
+      <c r="J458" s="1" t="n"/>
+      <c r="K458" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L458" t="n">
+        <v>0.7040816326530612</v>
+      </c>
+      <c r="M458" t="n">
+        <v>0.6712550607287449</v>
+      </c>
+      <c r="N458" t="n">
+        <v>0.3979591836734694</v>
+      </c>
+      <c r="O458" t="n">
+        <v>0.826530612244898</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n"/>
+      <c r="B459" s="1" t="n"/>
+      <c r="C459" s="1" t="n"/>
+      <c r="D459" s="1" t="n"/>
+      <c r="E459" s="1" t="n"/>
+      <c r="F459" s="1" t="n"/>
+      <c r="G459" s="1" t="n"/>
+      <c r="H459" s="1" t="n"/>
+      <c r="I459" s="1" t="n"/>
+      <c r="J459" s="1" t="n"/>
+      <c r="K459" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L459" t="n">
+        <v>0.7422680412371134</v>
+      </c>
+      <c r="M459" t="n">
+        <v>0.712609623133444</v>
+      </c>
+      <c r="N459" t="n">
+        <v>0.4329896907216495</v>
+      </c>
+      <c r="O459" t="n">
+        <v>1.649484536082474</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n"/>
+      <c r="B460" s="1" t="n"/>
+      <c r="C460" s="1" t="n"/>
+      <c r="D460" s="1" t="n"/>
+      <c r="E460" s="1" t="n"/>
+      <c r="F460" s="1" t="n"/>
+      <c r="G460" s="1" t="n"/>
+      <c r="H460" s="1" t="n"/>
+      <c r="I460" s="1" t="n"/>
+      <c r="J460" s="1" t="n"/>
+      <c r="K460" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L460" t="n">
+        <v>0.6082474226804123</v>
+      </c>
+      <c r="M460" t="n">
+        <v>0.564508506616257</v>
+      </c>
+      <c r="N460" t="n">
+        <v>0.4948453608247423</v>
+      </c>
+      <c r="O460" t="n">
+        <v>0.845360824742268</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>1218_225615224696</t>
+        </is>
+      </c>
+      <c r="B461" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C461" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D461" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E461" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F461" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="G461" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H461" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I461" s="1" t="inlineStr">
+        <is>
+          <t>0.452 (0.070)</t>
+        </is>
+      </c>
+      <c r="J461" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT16-12-6_33__1218_225615224696</t>
+        </is>
+      </c>
+      <c r="K461" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L461" t="n">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="M461" t="n">
+        <v>0.3003180372557929</v>
+      </c>
+      <c r="N461" t="n">
+        <v>0.7428571428571429</v>
+      </c>
+      <c r="O461" t="n">
+        <v>1.028571428571428</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n"/>
+      <c r="B462" s="1" t="n"/>
+      <c r="C462" s="1" t="n"/>
+      <c r="D462" s="1" t="n"/>
+      <c r="E462" s="1" t="n"/>
+      <c r="F462" s="1" t="n"/>
+      <c r="G462" s="1" t="n"/>
+      <c r="H462" s="1" t="n"/>
+      <c r="I462" s="1" t="n"/>
+      <c r="J462" s="1" t="n"/>
+      <c r="K462" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L462" t="n">
+        <v>0.5070422535211268</v>
+      </c>
+      <c r="M462" t="n">
+        <v>0.4250347061545581</v>
+      </c>
+      <c r="N462" t="n">
+        <v>0.5915492957746479</v>
+      </c>
+      <c r="O462" t="n">
+        <v>0.8169014084507042</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n"/>
+      <c r="B463" s="1" t="n"/>
+      <c r="C463" s="1" t="n"/>
+      <c r="D463" s="1" t="n"/>
+      <c r="E463" s="1" t="n"/>
+      <c r="F463" s="1" t="n"/>
+      <c r="G463" s="1" t="n"/>
+      <c r="H463" s="1" t="n"/>
+      <c r="I463" s="1" t="n"/>
+      <c r="J463" s="1" t="n"/>
+      <c r="K463" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L463" t="n">
+        <v>0.5142857142857142</v>
+      </c>
+      <c r="M463" t="n">
+        <v>0.4430142756845307</v>
+      </c>
+      <c r="N463" t="n">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="O463" t="n">
+        <v>1.228571428571429</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n"/>
+      <c r="B464" s="1" t="n"/>
+      <c r="C464" s="1" t="n"/>
+      <c r="D464" s="1" t="n"/>
+      <c r="E464" s="1" t="n"/>
+      <c r="F464" s="1" t="n"/>
+      <c r="G464" s="1" t="n"/>
+      <c r="H464" s="1" t="n"/>
+      <c r="I464" s="1" t="n"/>
+      <c r="J464" s="1" t="n"/>
+      <c r="K464" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L464" t="n">
+        <v>0.4142857142857143</v>
+      </c>
+      <c r="M464" t="n">
+        <v>0.3190984578884936</v>
+      </c>
+      <c r="N464" t="n">
+        <v>0.9428571428571428</v>
+      </c>
+      <c r="O464" t="n">
+        <v>1.942857142857143</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>1218_225615789692</t>
+        </is>
+      </c>
+      <c r="B465" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C465" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D465" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E465" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F465" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="G465" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H465" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" s="1" t="inlineStr">
+        <is>
+          <t>0.385 (0.043)</t>
+        </is>
+      </c>
+      <c r="J465" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT16-12-6_38__1218_225615789692</t>
+        </is>
+      </c>
+      <c r="K465" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L465" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M465" t="n">
+        <v>0.2895204262877443</v>
+      </c>
+      <c r="N465" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="O465" t="n">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n"/>
+      <c r="B466" s="1" t="n"/>
+      <c r="C466" s="1" t="n"/>
+      <c r="D466" s="1" t="n"/>
+      <c r="E466" s="1" t="n"/>
+      <c r="F466" s="1" t="n"/>
+      <c r="G466" s="1" t="n"/>
+      <c r="H466" s="1" t="n"/>
+      <c r="I466" s="1" t="n"/>
+      <c r="J466" s="1" t="n"/>
+      <c r="K466" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L466" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M466" t="n">
+        <v>0.2953869866784102</v>
+      </c>
+      <c r="N466" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O466" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n"/>
+      <c r="B467" s="1" t="n"/>
+      <c r="C467" s="1" t="n"/>
+      <c r="D467" s="1" t="n"/>
+      <c r="E467" s="1" t="n"/>
+      <c r="F467" s="1" t="n"/>
+      <c r="G467" s="1" t="n"/>
+      <c r="H467" s="1" t="n"/>
+      <c r="I467" s="1" t="n"/>
+      <c r="J467" s="1" t="n"/>
+      <c r="K467" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L467" t="n">
+        <v>0.4343434343434344</v>
+      </c>
+      <c r="M467" t="n">
+        <v>0.3682771194165907</v>
+      </c>
+      <c r="N467" t="n">
+        <v>1.060606060606061</v>
+      </c>
+      <c r="O467" t="n">
+        <v>3.181818181818182</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>1218_232000226057</t>
+        </is>
+      </c>
+      <c r="B468" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C468" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D468" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E468" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F468" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="G468" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H468" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I468" s="1" t="inlineStr">
+        <is>
+          <t>0.466 (0.075)</t>
+        </is>
+      </c>
+      <c r="J468" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT16-12-6_33__1218_232000226057</t>
+        </is>
+      </c>
+      <c r="K468" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L468" t="n">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="M468" t="n">
+        <v>0.3687707641196014</v>
+      </c>
+      <c r="N468" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="O468" t="n">
+        <v>1.114285714285714</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n"/>
+      <c r="B469" s="1" t="n"/>
+      <c r="C469" s="1" t="n"/>
+      <c r="D469" s="1" t="n"/>
+      <c r="E469" s="1" t="n"/>
+      <c r="F469" s="1" t="n"/>
+      <c r="G469" s="1" t="n"/>
+      <c r="H469" s="1" t="n"/>
+      <c r="I469" s="1" t="n"/>
+      <c r="J469" s="1" t="n"/>
+      <c r="K469" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L469" t="n">
+        <v>0.3943661971830986</v>
+      </c>
+      <c r="M469" t="n">
+        <v>0.309744517295953</v>
+      </c>
+      <c r="N469" t="n">
+        <v>0.7887323943661971</v>
+      </c>
+      <c r="O469" t="n">
+        <v>1.183098591549296</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n"/>
+      <c r="B470" s="1" t="n"/>
+      <c r="C470" s="1" t="n"/>
+      <c r="D470" s="1" t="n"/>
+      <c r="E470" s="1" t="n"/>
+      <c r="F470" s="1" t="n"/>
+      <c r="G470" s="1" t="n"/>
+      <c r="H470" s="1" t="n"/>
+      <c r="I470" s="1" t="n"/>
+      <c r="J470" s="1" t="n"/>
+      <c r="K470" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L470" t="n">
+        <v>0.4428571428571428</v>
+      </c>
+      <c r="M470" t="n">
+        <v>0.3501547250654606</v>
+      </c>
+      <c r="N470" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="O470" t="n">
+        <v>1.328571428571429</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n"/>
+      <c r="B471" s="1" t="n"/>
+      <c r="C471" s="1" t="n"/>
+      <c r="D471" s="1" t="n"/>
+      <c r="E471" s="1" t="n"/>
+      <c r="F471" s="1" t="n"/>
+      <c r="G471" s="1" t="n"/>
+      <c r="H471" s="1" t="n"/>
+      <c r="I471" s="1" t="n"/>
+      <c r="J471" s="1" t="n"/>
+      <c r="K471" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L471" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="M471" t="n">
+        <v>0.5051837888784166</v>
+      </c>
+      <c r="N471" t="n">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="O471" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>1218_232000380511</t>
+        </is>
+      </c>
+      <c r="B472" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C472" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D472" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E472" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F472" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="G472" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H472" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" s="1" t="inlineStr">
+        <is>
+          <t>0.484 (0.072)</t>
+        </is>
+      </c>
+      <c r="J472" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT16-12-6_34__1218_232000380511</t>
+        </is>
+      </c>
+      <c r="K472" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L472" t="n">
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="M472" t="n">
+        <v>0.3623188405797102</v>
+      </c>
+      <c r="N472" t="n">
+        <v>0.6794871794871795</v>
+      </c>
+      <c r="O472" t="n">
+        <v>0.9102564102564102</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n"/>
+      <c r="B473" s="1" t="n"/>
+      <c r="C473" s="1" t="n"/>
+      <c r="D473" s="1" t="n"/>
+      <c r="E473" s="1" t="n"/>
+      <c r="F473" s="1" t="n"/>
+      <c r="G473" s="1" t="n"/>
+      <c r="H473" s="1" t="n"/>
+      <c r="I473" s="1" t="n"/>
+      <c r="J473" s="1" t="n"/>
+      <c r="K473" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L473" t="n">
+        <v>0.5897435897435898</v>
+      </c>
+      <c r="M473" t="n">
+        <v>0.5325842696629214</v>
+      </c>
+      <c r="N473" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="O473" t="n">
+        <v>0.8974358974358975</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n"/>
+      <c r="B474" s="1" t="n"/>
+      <c r="C474" s="1" t="n"/>
+      <c r="D474" s="1" t="n"/>
+      <c r="E474" s="1" t="n"/>
+      <c r="F474" s="1" t="n"/>
+      <c r="G474" s="1" t="n"/>
+      <c r="H474" s="1" t="n"/>
+      <c r="I474" s="1" t="n"/>
+      <c r="J474" s="1" t="n"/>
+      <c r="K474" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L474" t="n">
+        <v>0.4415584415584415</v>
+      </c>
+      <c r="M474" t="n">
+        <v>0.3676470588235293</v>
+      </c>
+      <c r="N474" t="n">
+        <v>0.7402597402597403</v>
+      </c>
+      <c r="O474" t="n">
+        <v>1.311688311688312</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n"/>
+      <c r="B475" s="1" t="n"/>
+      <c r="C475" s="1" t="n"/>
+      <c r="D475" s="1" t="n"/>
+      <c r="E475" s="1" t="n"/>
+      <c r="F475" s="1" t="n"/>
+      <c r="G475" s="1" t="n"/>
+      <c r="H475" s="1" t="n"/>
+      <c r="I475" s="1" t="n"/>
+      <c r="J475" s="1" t="n"/>
+      <c r="K475" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="L475" t="n">
+        <v>0.4675324675324675</v>
+      </c>
+      <c r="M475" t="n">
+        <v>0.3850798597584729</v>
+      </c>
+      <c r="N475" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="O475" t="n">
+        <v>1.376623376623377</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>1218_225615574758</t>
+        </is>
+      </c>
+      <c r="B476" s="1" t="inlineStr">
+        <is>
+          <t>AE+ViT</t>
+        </is>
+      </c>
+      <c r="C476" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D476" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E476" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F476" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="G476" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H476" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" s="1" t="inlineStr">
+        <is>
+          <t>0.713 (0.143)</t>
+        </is>
+      </c>
+      <c r="J476" s="1" t="inlineStr">
+        <is>
+          <t>./03 Reports/mean_attention_maps/AE+ViT16-12-6_37__1218_225615574758</t>
+        </is>
+      </c>
+      <c r="K476" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L476" t="n">
+        <v>0.8144329896907216</v>
+      </c>
+      <c r="M476" t="n">
+        <v>0.79288256227758</v>
+      </c>
+      <c r="N476" t="n">
+        <v>0.1855670103092784</v>
+      </c>
+      <c r="O476" t="n">
+        <v>0.1855670103092784</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n"/>
+      <c r="B477" s="1" t="n"/>
+      <c r="C477" s="1" t="n"/>
+      <c r="D477" s="1" t="n"/>
+      <c r="E477" s="1" t="n"/>
+      <c r="F477" s="1" t="n"/>
+      <c r="G477" s="1" t="n"/>
+      <c r="H477" s="1" t="n"/>
+      <c r="I477" s="1" t="n"/>
+      <c r="J477" s="1" t="n"/>
+      <c r="K477" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L477" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="M477" t="n">
+        <v>0.5674294343129282</v>
+      </c>
+      <c r="N477" t="n">
+        <v>0.4897959183673469</v>
+      </c>
+      <c r="O477" t="n">
+        <v>0.9387755102040817</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="710">
+  <mergeCells count="1000">
     <mergeCell ref="C167:C171"/>
     <mergeCell ref="E167:E171"/>
     <mergeCell ref="C232:C236"/>
     <mergeCell ref="H57:H61"/>
-    <mergeCell ref="J157:J161"/>
+    <mergeCell ref="F457:F460"/>
     <mergeCell ref="E232:E236"/>
     <mergeCell ref="H22:H26"/>
+    <mergeCell ref="C461:C464"/>
+    <mergeCell ref="E418:E421"/>
+    <mergeCell ref="C442:C444"/>
+    <mergeCell ref="H457:H460"/>
     <mergeCell ref="H7:H11"/>
+    <mergeCell ref="J157:J161"/>
     <mergeCell ref="B137:B141"/>
     <mergeCell ref="H292:H296"/>
     <mergeCell ref="D197:D201"/>
     <mergeCell ref="J292:J296"/>
+    <mergeCell ref="H357:H361"/>
+    <mergeCell ref="J357:J361"/>
     <mergeCell ref="I247:I251"/>
     <mergeCell ref="G212:G216"/>
+    <mergeCell ref="E402:E405"/>
+    <mergeCell ref="G402:G405"/>
     <mergeCell ref="E162:E166"/>
+    <mergeCell ref="E426:E429"/>
+    <mergeCell ref="B430:B433"/>
     <mergeCell ref="E227:E231"/>
     <mergeCell ref="D117:D121"/>
     <mergeCell ref="I262:I266"/>
@@ -12129,15 +16129,21 @@
     <mergeCell ref="J52:J56"/>
     <mergeCell ref="D182:D186"/>
     <mergeCell ref="H317:H321"/>
+    <mergeCell ref="A357:A361"/>
     <mergeCell ref="F182:F186"/>
     <mergeCell ref="D132:D136"/>
     <mergeCell ref="J287:J291"/>
     <mergeCell ref="C87:C91"/>
     <mergeCell ref="J352:J356"/>
+    <mergeCell ref="A414:A417"/>
     <mergeCell ref="I207:I211"/>
+    <mergeCell ref="C372:C376"/>
+    <mergeCell ref="E372:E376"/>
     <mergeCell ref="I192:I196"/>
+    <mergeCell ref="F392:F396"/>
     <mergeCell ref="C322:C326"/>
     <mergeCell ref="F112:F116"/>
+    <mergeCell ref="J414:J417"/>
     <mergeCell ref="A187:A191"/>
     <mergeCell ref="H112:H116"/>
     <mergeCell ref="I222:I226"/>
@@ -12147,7 +16153,8 @@
     <mergeCell ref="H177:H181"/>
     <mergeCell ref="G67:G71"/>
     <mergeCell ref="I197:I201"/>
-    <mergeCell ref="J112:J116"/>
+    <mergeCell ref="H468:H471"/>
+    <mergeCell ref="I461:I464"/>
     <mergeCell ref="A197:A201"/>
     <mergeCell ref="F127:F131"/>
     <mergeCell ref="E17:E21"/>
@@ -12156,12 +16163,18 @@
     <mergeCell ref="E82:E86"/>
     <mergeCell ref="B152:B156"/>
     <mergeCell ref="G82:G86"/>
+    <mergeCell ref="E367:E371"/>
+    <mergeCell ref="G367:G371"/>
+    <mergeCell ref="B418:B421"/>
     <mergeCell ref="C117:C121"/>
+    <mergeCell ref="H445:H448"/>
     <mergeCell ref="G342:G346"/>
     <mergeCell ref="C182:C186"/>
+    <mergeCell ref="E449:E452"/>
     <mergeCell ref="I342:I346"/>
     <mergeCell ref="D272:D276"/>
     <mergeCell ref="E182:E186"/>
+    <mergeCell ref="J445:J448"/>
     <mergeCell ref="F272:F276"/>
     <mergeCell ref="J172:J176"/>
     <mergeCell ref="D137:D141"/>
@@ -12171,6 +16184,8 @@
     <mergeCell ref="B87:B91"/>
     <mergeCell ref="D87:D91"/>
     <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B372:B376"/>
+    <mergeCell ref="D372:D376"/>
     <mergeCell ref="D347:D351"/>
     <mergeCell ref="F347:F351"/>
     <mergeCell ref="I202:I206"/>
@@ -12181,57 +16196,85 @@
     <mergeCell ref="F82:F86"/>
     <mergeCell ref="H307:H311"/>
     <mergeCell ref="H107:H111"/>
+    <mergeCell ref="A406:A409"/>
     <mergeCell ref="C37:C41"/>
     <mergeCell ref="E37:E41"/>
+    <mergeCell ref="G426:G429"/>
+    <mergeCell ref="D430:D433"/>
+    <mergeCell ref="H392:H396"/>
     <mergeCell ref="E322:E326"/>
     <mergeCell ref="E72:E76"/>
     <mergeCell ref="J2:J6"/>
     <mergeCell ref="E297:E301"/>
+    <mergeCell ref="B438:B441"/>
     <mergeCell ref="G297:G301"/>
+    <mergeCell ref="G362:G366"/>
     <mergeCell ref="E312:E316"/>
     <mergeCell ref="H102:H106"/>
     <mergeCell ref="J102:J106"/>
+    <mergeCell ref="J418:J421"/>
     <mergeCell ref="B232:B236"/>
     <mergeCell ref="G57:G61"/>
+    <mergeCell ref="E457:E460"/>
     <mergeCell ref="F267:F271"/>
     <mergeCell ref="I57:I61"/>
+    <mergeCell ref="D418:D421"/>
+    <mergeCell ref="J387:J391"/>
     <mergeCell ref="B77:B81"/>
+    <mergeCell ref="J167:J171"/>
     <mergeCell ref="A137:A141"/>
     <mergeCell ref="G292:G296"/>
     <mergeCell ref="I292:I296"/>
+    <mergeCell ref="G357:G361"/>
     <mergeCell ref="F247:F251"/>
+    <mergeCell ref="I357:I361"/>
     <mergeCell ref="H247:H251"/>
+    <mergeCell ref="B377:B381"/>
+    <mergeCell ref="A465:A467"/>
+    <mergeCell ref="F402:F405"/>
     <mergeCell ref="H312:H316"/>
     <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A430:A433"/>
     <mergeCell ref="D122:D126"/>
+    <mergeCell ref="C332:C336"/>
     <mergeCell ref="F62:F66"/>
-    <mergeCell ref="C332:C336"/>
+    <mergeCell ref="C17:C21"/>
     <mergeCell ref="F122:F126"/>
-    <mergeCell ref="C17:C21"/>
     <mergeCell ref="F262:F266"/>
     <mergeCell ref="H262:H266"/>
     <mergeCell ref="I52:I56"/>
+    <mergeCell ref="D410:D413"/>
     <mergeCell ref="E77:E81"/>
     <mergeCell ref="J7:J11"/>
     <mergeCell ref="C27:C31"/>
     <mergeCell ref="C132:C136"/>
     <mergeCell ref="E27:E31"/>
+    <mergeCell ref="F453:F456"/>
+    <mergeCell ref="H453:H456"/>
     <mergeCell ref="H242:H246"/>
     <mergeCell ref="J242:J246"/>
     <mergeCell ref="E317:E321"/>
+    <mergeCell ref="E377:E381"/>
     <mergeCell ref="J307:J311"/>
     <mergeCell ref="F57:F61"/>
     <mergeCell ref="C327:C331"/>
+    <mergeCell ref="G414:G417"/>
     <mergeCell ref="E327:E331"/>
+    <mergeCell ref="I414:I417"/>
     <mergeCell ref="E12:E16"/>
     <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G472:G475"/>
     <mergeCell ref="G72:G76"/>
     <mergeCell ref="A142:A146"/>
+    <mergeCell ref="E422:E425"/>
+    <mergeCell ref="G422:G425"/>
     <mergeCell ref="B97:B101"/>
     <mergeCell ref="A92:A96"/>
     <mergeCell ref="E247:E251"/>
     <mergeCell ref="G247:G251"/>
+    <mergeCell ref="B382:B386"/>
     <mergeCell ref="G312:G316"/>
+    <mergeCell ref="A418:A421"/>
     <mergeCell ref="J77:J81"/>
     <mergeCell ref="D217:D221"/>
     <mergeCell ref="G7:G11"/>
@@ -12243,26 +16286,39 @@
     <mergeCell ref="C137:C141"/>
     <mergeCell ref="G272:G276"/>
     <mergeCell ref="A87:A91"/>
+    <mergeCell ref="E442:E444"/>
     <mergeCell ref="C47:C51"/>
     <mergeCell ref="B42:B46"/>
+    <mergeCell ref="D377:D381"/>
     <mergeCell ref="I307:I311"/>
+    <mergeCell ref="H402:H405"/>
+    <mergeCell ref="J397:J401"/>
     <mergeCell ref="C22:C26"/>
+    <mergeCell ref="H414:H417"/>
     <mergeCell ref="I282:I286"/>
     <mergeCell ref="A282:A286"/>
     <mergeCell ref="H237:H241"/>
+    <mergeCell ref="J430:J433"/>
     <mergeCell ref="J237:J241"/>
     <mergeCell ref="G142:G146"/>
     <mergeCell ref="D212:D216"/>
     <mergeCell ref="I142:I146"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="D37:D41"/>
+    <mergeCell ref="G406:G409"/>
     <mergeCell ref="D322:D326"/>
     <mergeCell ref="A147:A151"/>
+    <mergeCell ref="D434:D437"/>
     <mergeCell ref="E302:E306"/>
+    <mergeCell ref="A438:A441"/>
+    <mergeCell ref="F434:F437"/>
+    <mergeCell ref="G302:G306"/>
     <mergeCell ref="J232:J236"/>
-    <mergeCell ref="G302:G306"/>
+    <mergeCell ref="D362:D366"/>
     <mergeCell ref="I187:I191"/>
     <mergeCell ref="F257:F261"/>
+    <mergeCell ref="F362:F366"/>
+    <mergeCell ref="J461:J464"/>
     <mergeCell ref="D207:D211"/>
     <mergeCell ref="I137:I141"/>
     <mergeCell ref="B72:B76"/>
@@ -12271,13 +16327,17 @@
     <mergeCell ref="H92:H96"/>
     <mergeCell ref="E267:E271"/>
     <mergeCell ref="J92:J96"/>
+    <mergeCell ref="C418:C421"/>
+    <mergeCell ref="I465:I467"/>
     <mergeCell ref="B32:B36"/>
+    <mergeCell ref="E468:E471"/>
     <mergeCell ref="F192:F196"/>
     <mergeCell ref="F252:F256"/>
     <mergeCell ref="H192:H196"/>
     <mergeCell ref="H252:H256"/>
     <mergeCell ref="F202:F206"/>
     <mergeCell ref="H202:H206"/>
+    <mergeCell ref="B465:B467"/>
     <mergeCell ref="B167:B171"/>
     <mergeCell ref="E262:E266"/>
     <mergeCell ref="J87:J91"/>
@@ -12288,9 +16348,13 @@
     <mergeCell ref="G122:G126"/>
     <mergeCell ref="D17:D21"/>
     <mergeCell ref="G262:G266"/>
+    <mergeCell ref="C410:C413"/>
+    <mergeCell ref="J372:J376"/>
     <mergeCell ref="D27:D31"/>
+    <mergeCell ref="E453:E456"/>
     <mergeCell ref="C257:C261"/>
     <mergeCell ref="H187:H191"/>
+    <mergeCell ref="G453:G456"/>
     <mergeCell ref="E257:E261"/>
     <mergeCell ref="J47:J51"/>
     <mergeCell ref="J187:J191"/>
@@ -12304,9 +16368,18 @@
     <mergeCell ref="D327:D331"/>
     <mergeCell ref="D12:D16"/>
     <mergeCell ref="D227:D231"/>
+    <mergeCell ref="I406:I409"/>
+    <mergeCell ref="F472:F475"/>
     <mergeCell ref="C282:C286"/>
+    <mergeCell ref="F410:F413"/>
+    <mergeCell ref="H472:H475"/>
     <mergeCell ref="A32:A36"/>
+    <mergeCell ref="F422:F425"/>
     <mergeCell ref="A97:A101"/>
+    <mergeCell ref="D449:D452"/>
+    <mergeCell ref="F449:F452"/>
+    <mergeCell ref="A382:A386"/>
+    <mergeCell ref="G476:G477"/>
     <mergeCell ref="D157:D161"/>
     <mergeCell ref="A332:A336"/>
     <mergeCell ref="D222:D226"/>
@@ -12319,23 +16392,39 @@
     <mergeCell ref="J42:J46"/>
     <mergeCell ref="F197:F201"/>
     <mergeCell ref="J17:J21"/>
+    <mergeCell ref="D442:D444"/>
+    <mergeCell ref="F442:F444"/>
     <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C377:C381"/>
     <mergeCell ref="B22:B26"/>
+    <mergeCell ref="E387:E391"/>
     <mergeCell ref="J317:J321"/>
-    <mergeCell ref="J37:J41"/>
+    <mergeCell ref="H406:H409"/>
+    <mergeCell ref="E472:E475"/>
     <mergeCell ref="B282:B286"/>
+    <mergeCell ref="E410:E413"/>
     <mergeCell ref="G237:G241"/>
     <mergeCell ref="I237:I241"/>
+    <mergeCell ref="I430:I433"/>
     <mergeCell ref="G172:G176"/>
     <mergeCell ref="A237:A241"/>
+    <mergeCell ref="J37:J41"/>
+    <mergeCell ref="J406:J409"/>
     <mergeCell ref="G147:G151"/>
     <mergeCell ref="A212:A216"/>
     <mergeCell ref="F142:F146"/>
+    <mergeCell ref="G438:G441"/>
+    <mergeCell ref="C212:C216"/>
     <mergeCell ref="I147:I151"/>
-    <mergeCell ref="C212:C216"/>
+    <mergeCell ref="I438:I441"/>
+    <mergeCell ref="D476:D477"/>
+    <mergeCell ref="F476:F477"/>
     <mergeCell ref="I67:I71"/>
+    <mergeCell ref="C434:C437"/>
+    <mergeCell ref="E434:E437"/>
     <mergeCell ref="F302:F306"/>
     <mergeCell ref="H302:H306"/>
+    <mergeCell ref="H422:H425"/>
     <mergeCell ref="B187:B191"/>
     <mergeCell ref="C207:C211"/>
     <mergeCell ref="H32:H36"/>
@@ -12346,6 +16435,11 @@
     <mergeCell ref="J32:J36"/>
     <mergeCell ref="D162:D166"/>
     <mergeCell ref="A22:A26"/>
+    <mergeCell ref="E392:E396"/>
+    <mergeCell ref="H465:H467"/>
+    <mergeCell ref="J465:J467"/>
+    <mergeCell ref="B468:B471"/>
+    <mergeCell ref="D468:D471"/>
     <mergeCell ref="J332:J336"/>
     <mergeCell ref="E192:E196"/>
     <mergeCell ref="H197:H201"/>
@@ -12355,15 +16449,23 @@
     <mergeCell ref="G202:G206"/>
     <mergeCell ref="B277:B281"/>
     <mergeCell ref="A167:A171"/>
+    <mergeCell ref="J457:J460"/>
     <mergeCell ref="F157:F161"/>
+    <mergeCell ref="B457:B460"/>
     <mergeCell ref="A232:A236"/>
     <mergeCell ref="D22:D26"/>
+    <mergeCell ref="D457:D460"/>
     <mergeCell ref="F222:F226"/>
+    <mergeCell ref="G387:G391"/>
+    <mergeCell ref="A442:A444"/>
+    <mergeCell ref="D397:D401"/>
     <mergeCell ref="E127:E131"/>
     <mergeCell ref="D257:D261"/>
+    <mergeCell ref="F397:F401"/>
     <mergeCell ref="E347:E351"/>
     <mergeCell ref="G347:G351"/>
     <mergeCell ref="H142:H146"/>
+    <mergeCell ref="I426:I429"/>
     <mergeCell ref="A162:A166"/>
     <mergeCell ref="C162:C166"/>
     <mergeCell ref="A227:A231"/>
@@ -12374,6 +16476,7 @@
     <mergeCell ref="I72:I76"/>
     <mergeCell ref="B182:B186"/>
     <mergeCell ref="F287:F291"/>
+    <mergeCell ref="C449:C452"/>
     <mergeCell ref="J137:J141"/>
     <mergeCell ref="G207:G211"/>
     <mergeCell ref="C222:C226"/>
@@ -12395,21 +16498,27 @@
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="C82:C86"/>
     <mergeCell ref="B212:B216"/>
+    <mergeCell ref="C367:C371"/>
     <mergeCell ref="A117:A121"/>
     <mergeCell ref="C342:C346"/>
     <mergeCell ref="C317:C321"/>
-    <mergeCell ref="I77:I81"/>
+    <mergeCell ref="D445:D448"/>
     <mergeCell ref="E342:E346"/>
     <mergeCell ref="A182:A186"/>
     <mergeCell ref="C62:C66"/>
     <mergeCell ref="D172:D176"/>
     <mergeCell ref="F172:F176"/>
     <mergeCell ref="E62:E66"/>
+    <mergeCell ref="F445:F448"/>
     <mergeCell ref="H172:H176"/>
     <mergeCell ref="B237:B241"/>
     <mergeCell ref="F147:F151"/>
     <mergeCell ref="H147:H151"/>
+    <mergeCell ref="H438:H441"/>
     <mergeCell ref="G102:G106"/>
+    <mergeCell ref="J438:J441"/>
+    <mergeCell ref="E476:E477"/>
+    <mergeCell ref="E362:E366"/>
     <mergeCell ref="B347:B351"/>
     <mergeCell ref="A177:A181"/>
     <mergeCell ref="E337:E341"/>
@@ -12429,8 +16538,12 @@
     <mergeCell ref="G97:G101"/>
     <mergeCell ref="I97:I101"/>
     <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B367:B371"/>
+    <mergeCell ref="D392:D396"/>
     <mergeCell ref="I322:I326"/>
     <mergeCell ref="A12:A16"/>
+    <mergeCell ref="G465:G467"/>
+    <mergeCell ref="I382:I386"/>
     <mergeCell ref="B342:B346"/>
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="G167:G171"/>
@@ -12447,49 +16560,71 @@
     <mergeCell ref="D102:D106"/>
     <mergeCell ref="F102:F106"/>
     <mergeCell ref="C57:C61"/>
+    <mergeCell ref="A457:A460"/>
     <mergeCell ref="E57:E61"/>
+    <mergeCell ref="C457:C460"/>
+    <mergeCell ref="F387:F391"/>
     <mergeCell ref="C7:C11"/>
+    <mergeCell ref="H387:H391"/>
     <mergeCell ref="F337:F341"/>
     <mergeCell ref="C292:C296"/>
+    <mergeCell ref="G461:G464"/>
     <mergeCell ref="E292:E296"/>
+    <mergeCell ref="C357:C361"/>
     <mergeCell ref="J282:J286"/>
+    <mergeCell ref="E357:E361"/>
     <mergeCell ref="D247:D251"/>
     <mergeCell ref="C307:C311"/>
     <mergeCell ref="H97:H101"/>
+    <mergeCell ref="B426:B429"/>
     <mergeCell ref="B62:B66"/>
     <mergeCell ref="E52:E56"/>
     <mergeCell ref="B122:B126"/>
     <mergeCell ref="B227:B231"/>
     <mergeCell ref="D262:D266"/>
+    <mergeCell ref="D426:D429"/>
     <mergeCell ref="G52:G56"/>
+    <mergeCell ref="H382:H386"/>
     <mergeCell ref="J97:J101"/>
     <mergeCell ref="F7:F11"/>
+    <mergeCell ref="J382:J386"/>
+    <mergeCell ref="B453:B456"/>
+    <mergeCell ref="D453:D456"/>
     <mergeCell ref="G287:G291"/>
     <mergeCell ref="E352:E356"/>
     <mergeCell ref="D242:D246"/>
     <mergeCell ref="I287:I291"/>
     <mergeCell ref="G352:G356"/>
     <mergeCell ref="F242:F246"/>
+    <mergeCell ref="J277:J281"/>
     <mergeCell ref="I352:I356"/>
     <mergeCell ref="F307:F311"/>
     <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C414:C417"/>
     <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E414:E417"/>
     <mergeCell ref="I47:I51"/>
     <mergeCell ref="C112:C116"/>
     <mergeCell ref="C12:C16"/>
     <mergeCell ref="H2:H6"/>
     <mergeCell ref="I22:I26"/>
+    <mergeCell ref="C468:C471"/>
     <mergeCell ref="E177:E181"/>
+    <mergeCell ref="I457:I460"/>
+    <mergeCell ref="F461:F464"/>
     <mergeCell ref="A247:A251"/>
     <mergeCell ref="B82:B86"/>
     <mergeCell ref="C247:C251"/>
     <mergeCell ref="C312:C316"/>
+    <mergeCell ref="A402:A405"/>
     <mergeCell ref="G192:G196"/>
+    <mergeCell ref="D367:D371"/>
     <mergeCell ref="F77:F81"/>
     <mergeCell ref="J212:J216"/>
+    <mergeCell ref="C445:C448"/>
+    <mergeCell ref="H77:H81"/>
     <mergeCell ref="H277:H281"/>
-    <mergeCell ref="H77:H81"/>
-    <mergeCell ref="J222:J226"/>
+    <mergeCell ref="E445:E448"/>
     <mergeCell ref="B217:B221"/>
     <mergeCell ref="E7:E11"/>
     <mergeCell ref="I167:I171"/>
@@ -12498,9 +16633,17 @@
     <mergeCell ref="E172:E176"/>
     <mergeCell ref="F342:F346"/>
     <mergeCell ref="C272:C276"/>
-    <mergeCell ref="J277:J281"/>
+    <mergeCell ref="J222:J226"/>
     <mergeCell ref="G182:G186"/>
+    <mergeCell ref="D472:D475"/>
+    <mergeCell ref="F377:F381"/>
+    <mergeCell ref="H377:H381"/>
+    <mergeCell ref="J377:J381"/>
     <mergeCell ref="E307:E311"/>
+    <mergeCell ref="D402:D405"/>
+    <mergeCell ref="A372:A376"/>
+    <mergeCell ref="H397:H401"/>
+    <mergeCell ref="D414:D417"/>
     <mergeCell ref="E282:E286"/>
     <mergeCell ref="G282:G286"/>
     <mergeCell ref="A347:A351"/>
@@ -12514,37 +16657,52 @@
     <mergeCell ref="A107:A111"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="C107:C111"/>
+    <mergeCell ref="A367:A371"/>
+    <mergeCell ref="C392:C396"/>
     <mergeCell ref="B322:B326"/>
     <mergeCell ref="H167:H171"/>
+    <mergeCell ref="J434:J437"/>
     <mergeCell ref="F232:F236"/>
     <mergeCell ref="H332:H336"/>
+    <mergeCell ref="B434:B437"/>
     <mergeCell ref="C302:C306"/>
-    <mergeCell ref="H232:H236"/>
     <mergeCell ref="B297:B301"/>
     <mergeCell ref="B272:B276"/>
-    <mergeCell ref="J167:J171"/>
+    <mergeCell ref="H232:H236"/>
     <mergeCell ref="D297:D301"/>
     <mergeCell ref="C127:C131"/>
     <mergeCell ref="G187:G191"/>
+    <mergeCell ref="H442:H444"/>
+    <mergeCell ref="H461:H464"/>
     <mergeCell ref="E137:E141"/>
     <mergeCell ref="G137:G141"/>
+    <mergeCell ref="C402:C405"/>
     <mergeCell ref="J162:J166"/>
     <mergeCell ref="J227:J231"/>
     <mergeCell ref="D292:D296"/>
     <mergeCell ref="I117:I121"/>
+    <mergeCell ref="D357:D361"/>
     <mergeCell ref="I182:I186"/>
+    <mergeCell ref="F357:F361"/>
     <mergeCell ref="D202:D206"/>
     <mergeCell ref="I132:I136"/>
     <mergeCell ref="A262:A266"/>
     <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A426:A429"/>
     <mergeCell ref="A122:A126"/>
     <mergeCell ref="C262:C266"/>
+    <mergeCell ref="C426:C429"/>
+    <mergeCell ref="C122:C126"/>
     <mergeCell ref="F52:F56"/>
-    <mergeCell ref="C122:C126"/>
     <mergeCell ref="H87:H91"/>
+    <mergeCell ref="F414:F417"/>
+    <mergeCell ref="H372:H376"/>
     <mergeCell ref="H27:H31"/>
+    <mergeCell ref="A453:A456"/>
     <mergeCell ref="D187:D191"/>
+    <mergeCell ref="C453:C456"/>
     <mergeCell ref="H322:H326"/>
+    <mergeCell ref="A362:A366"/>
     <mergeCell ref="F187:F191"/>
     <mergeCell ref="F352:F356"/>
     <mergeCell ref="E242:E246"/>
@@ -12557,9 +16715,18 @@
     <mergeCell ref="J82:J86"/>
     <mergeCell ref="B327:B331"/>
     <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B472:B475"/>
+    <mergeCell ref="B410:B413"/>
+    <mergeCell ref="J367:J371"/>
+    <mergeCell ref="B422:B425"/>
+    <mergeCell ref="G418:G421"/>
+    <mergeCell ref="D422:D425"/>
     <mergeCell ref="A252:A256"/>
+    <mergeCell ref="H449:H452"/>
     <mergeCell ref="B247:B251"/>
+    <mergeCell ref="J449:J452"/>
     <mergeCell ref="I272:I276"/>
+    <mergeCell ref="B449:B452"/>
     <mergeCell ref="B312:B316"/>
     <mergeCell ref="H157:H161"/>
     <mergeCell ref="D312:D316"/>
@@ -12571,50 +16738,79 @@
     <mergeCell ref="A277:A281"/>
     <mergeCell ref="F42:F46"/>
     <mergeCell ref="C277:C281"/>
+    <mergeCell ref="I77:I81"/>
     <mergeCell ref="I347:I351"/>
+    <mergeCell ref="J442:J444"/>
     <mergeCell ref="D307:D311"/>
+    <mergeCell ref="A377:A381"/>
+    <mergeCell ref="E397:E401"/>
+    <mergeCell ref="G397:G401"/>
     <mergeCell ref="I107:I111"/>
+    <mergeCell ref="D406:D409"/>
+    <mergeCell ref="A472:A475"/>
     <mergeCell ref="F37:F41"/>
+    <mergeCell ref="A410:A413"/>
+    <mergeCell ref="C472:C475"/>
+    <mergeCell ref="E430:E433"/>
+    <mergeCell ref="F406:F409"/>
+    <mergeCell ref="G430:G433"/>
+    <mergeCell ref="H37:H41"/>
     <mergeCell ref="H62:H66"/>
-    <mergeCell ref="H37:H41"/>
     <mergeCell ref="J62:J66"/>
     <mergeCell ref="H12:H16"/>
+    <mergeCell ref="J426:J429"/>
     <mergeCell ref="J322:J326"/>
     <mergeCell ref="J297:J301"/>
+    <mergeCell ref="H362:H366"/>
+    <mergeCell ref="B476:B477"/>
+    <mergeCell ref="J362:J366"/>
     <mergeCell ref="J57:J61"/>
+    <mergeCell ref="A434:A437"/>
     <mergeCell ref="B302:B306"/>
     <mergeCell ref="G232:G236"/>
-    <mergeCell ref="I267:I271"/>
     <mergeCell ref="D302:D306"/>
+    <mergeCell ref="E461:E464"/>
     <mergeCell ref="I232:I236"/>
     <mergeCell ref="A257:A261"/>
+    <mergeCell ref="I267:I271"/>
+    <mergeCell ref="I418:I421"/>
     <mergeCell ref="G77:G81"/>
     <mergeCell ref="A207:A211"/>
     <mergeCell ref="F137:F141"/>
     <mergeCell ref="E92:E96"/>
+    <mergeCell ref="D465:D467"/>
+    <mergeCell ref="I402:I405"/>
+    <mergeCell ref="F465:F467"/>
     <mergeCell ref="G62:G66"/>
-    <mergeCell ref="I122:I126"/>
+    <mergeCell ref="F430:F433"/>
     <mergeCell ref="A192:A196"/>
     <mergeCell ref="H117:H121"/>
-    <mergeCell ref="I227:I231"/>
+    <mergeCell ref="H430:H433"/>
     <mergeCell ref="C192:C196"/>
     <mergeCell ref="H17:H21"/>
     <mergeCell ref="C252:C256"/>
     <mergeCell ref="H182:H186"/>
+    <mergeCell ref="I122:I126"/>
+    <mergeCell ref="E252:E256"/>
+    <mergeCell ref="I227:I231"/>
     <mergeCell ref="J117:J121"/>
-    <mergeCell ref="E252:E256"/>
     <mergeCell ref="J182:J186"/>
     <mergeCell ref="I102:I106"/>
     <mergeCell ref="C202:C206"/>
     <mergeCell ref="H132:H136"/>
+    <mergeCell ref="I453:I456"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="E87:E91"/>
     <mergeCell ref="B157:B161"/>
     <mergeCell ref="G87:G91"/>
     <mergeCell ref="I87:I91"/>
+    <mergeCell ref="G372:G376"/>
+    <mergeCell ref="I372:I376"/>
     <mergeCell ref="A302:A306"/>
+    <mergeCell ref="B392:B396"/>
     <mergeCell ref="G322:G326"/>
     <mergeCell ref="J327:J331"/>
+    <mergeCell ref="B397:B401"/>
     <mergeCell ref="E187:E191"/>
     <mergeCell ref="J12:J16"/>
     <mergeCell ref="B257:B261"/>
@@ -12626,9 +16822,16 @@
     <mergeCell ref="F92:F96"/>
     <mergeCell ref="I82:I86"/>
     <mergeCell ref="F152:F156"/>
+    <mergeCell ref="I367:I371"/>
+    <mergeCell ref="A422:A425"/>
+    <mergeCell ref="F418:F421"/>
+    <mergeCell ref="C422:C425"/>
     <mergeCell ref="B252:B256"/>
     <mergeCell ref="D252:D256"/>
+    <mergeCell ref="E438:E441"/>
+    <mergeCell ref="A449:A452"/>
     <mergeCell ref="H272:H276"/>
+    <mergeCell ref="J112:J116"/>
     <mergeCell ref="J272:J276"/>
     <mergeCell ref="H137:H141"/>
     <mergeCell ref="A157:A161"/>
@@ -12636,32 +16839,57 @@
     <mergeCell ref="C157:C161"/>
     <mergeCell ref="C42:C46"/>
     <mergeCell ref="A222:A226"/>
+    <mergeCell ref="E382:E386"/>
+    <mergeCell ref="E42:E46"/>
     <mergeCell ref="J312:J316"/>
-    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="F372:F376"/>
     <mergeCell ref="G42:G46"/>
+    <mergeCell ref="J468:J471"/>
     <mergeCell ref="C142:C146"/>
     <mergeCell ref="J132:J136"/>
     <mergeCell ref="J107:J111"/>
+    <mergeCell ref="C406:C409"/>
+    <mergeCell ref="G377:G381"/>
+    <mergeCell ref="B445:B448"/>
+    <mergeCell ref="E406:E409"/>
     <mergeCell ref="G37:G41"/>
     <mergeCell ref="I62:I66"/>
     <mergeCell ref="I37:I41"/>
     <mergeCell ref="B172:B176"/>
+    <mergeCell ref="J392:J396"/>
+    <mergeCell ref="G410:G413"/>
+    <mergeCell ref="I472:I475"/>
     <mergeCell ref="B147:B151"/>
+    <mergeCell ref="I410:I413"/>
     <mergeCell ref="D147:D151"/>
+    <mergeCell ref="G434:G437"/>
+    <mergeCell ref="D438:D441"/>
+    <mergeCell ref="I434:I437"/>
+    <mergeCell ref="I297:I301"/>
+    <mergeCell ref="F438:F441"/>
     <mergeCell ref="J302:J306"/>
-    <mergeCell ref="I297:I301"/>
+    <mergeCell ref="A476:A477"/>
+    <mergeCell ref="I362:I366"/>
+    <mergeCell ref="C476:C477"/>
+    <mergeCell ref="C362:C366"/>
     <mergeCell ref="D67:D71"/>
     <mergeCell ref="F67:F71"/>
     <mergeCell ref="C337:C341"/>
     <mergeCell ref="H267:H271"/>
     <mergeCell ref="J267:J271"/>
+    <mergeCell ref="H418:H421"/>
     <mergeCell ref="A152:A156"/>
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="E32:E36"/>
     <mergeCell ref="G32:G36"/>
     <mergeCell ref="E97:E101"/>
+    <mergeCell ref="F367:F371"/>
     <mergeCell ref="J247:J251"/>
+    <mergeCell ref="C465:C467"/>
+    <mergeCell ref="G382:G386"/>
+    <mergeCell ref="E465:E467"/>
     <mergeCell ref="E272:E276"/>
+    <mergeCell ref="B402:B405"/>
     <mergeCell ref="E332:E336"/>
     <mergeCell ref="H122:H126"/>
     <mergeCell ref="J262:J266"/>
@@ -12672,57 +16900,80 @@
     <mergeCell ref="H127:H131"/>
     <mergeCell ref="I217:I221"/>
     <mergeCell ref="J122:J126"/>
+    <mergeCell ref="H410:H413"/>
     <mergeCell ref="J127:J131"/>
     <mergeCell ref="B202:B206"/>
     <mergeCell ref="G27:G31"/>
     <mergeCell ref="B102:B106"/>
     <mergeCell ref="I27:I31"/>
+    <mergeCell ref="J453:J456"/>
+    <mergeCell ref="B387:B391"/>
     <mergeCell ref="G317:G321"/>
+    <mergeCell ref="D387:D391"/>
     <mergeCell ref="I317:I321"/>
+    <mergeCell ref="I377:I381"/>
     <mergeCell ref="A317:A321"/>
     <mergeCell ref="G327:G331"/>
     <mergeCell ref="A292:A296"/>
-    <mergeCell ref="I327:I331"/>
+    <mergeCell ref="A397:A401"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="F282:F286"/>
+    <mergeCell ref="I327:I331"/>
     <mergeCell ref="H282:H286"/>
     <mergeCell ref="D32:D36"/>
+    <mergeCell ref="I422:I425"/>
     <mergeCell ref="F32:F36"/>
+    <mergeCell ref="F426:F429"/>
     <mergeCell ref="D97:D101"/>
+    <mergeCell ref="H426:H429"/>
     <mergeCell ref="F97:F101"/>
     <mergeCell ref="C52:C56"/>
     <mergeCell ref="D72:D76"/>
+    <mergeCell ref="D382:D386"/>
     <mergeCell ref="I312:I316"/>
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="F382:F386"/>
     <mergeCell ref="C287:C291"/>
     <mergeCell ref="H217:H221"/>
     <mergeCell ref="E287:E291"/>
     <mergeCell ref="J217:J221"/>
     <mergeCell ref="C352:C356"/>
     <mergeCell ref="B207:B211"/>
+    <mergeCell ref="G442:G444"/>
+    <mergeCell ref="I442:I444"/>
     <mergeCell ref="E47:E51"/>
     <mergeCell ref="D42:D46"/>
     <mergeCell ref="B222:B226"/>
     <mergeCell ref="A112:A116"/>
     <mergeCell ref="G47:G51"/>
+    <mergeCell ref="J402:J405"/>
     <mergeCell ref="E22:E26"/>
     <mergeCell ref="G22:G26"/>
+    <mergeCell ref="A468:A471"/>
+    <mergeCell ref="B461:B464"/>
+    <mergeCell ref="J410:J413"/>
     <mergeCell ref="D237:D241"/>
     <mergeCell ref="F237:F241"/>
     <mergeCell ref="F212:F216"/>
     <mergeCell ref="H212:H216"/>
+    <mergeCell ref="A445:A448"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="E142:E146"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="A172:A176"/>
+    <mergeCell ref="I476:I477"/>
     <mergeCell ref="C172:C176"/>
     <mergeCell ref="C147:C151"/>
     <mergeCell ref="I242:I246"/>
+    <mergeCell ref="C438:C441"/>
     <mergeCell ref="E147:E151"/>
+    <mergeCell ref="H434:H437"/>
     <mergeCell ref="I302:I306"/>
     <mergeCell ref="H257:H261"/>
     <mergeCell ref="J257:J261"/>
+    <mergeCell ref="B362:B366"/>
     <mergeCell ref="H207:H211"/>
+    <mergeCell ref="B414:B417"/>
     <mergeCell ref="F72:F76"/>
     <mergeCell ref="J207:J211"/>
     <mergeCell ref="B337:B341"/>
@@ -12734,10 +16985,15 @@
     <mergeCell ref="H72:H76"/>
     <mergeCell ref="A267:A271"/>
     <mergeCell ref="I162:I166"/>
+    <mergeCell ref="G468:G471"/>
+    <mergeCell ref="I468:I471"/>
     <mergeCell ref="J192:J196"/>
     <mergeCell ref="J252:J256"/>
     <mergeCell ref="B192:B196"/>
+    <mergeCell ref="G449:G452"/>
     <mergeCell ref="D192:D196"/>
+    <mergeCell ref="I449:I452"/>
+    <mergeCell ref="A392:A396"/>
     <mergeCell ref="D167:D171"/>
     <mergeCell ref="A342:A346"/>
     <mergeCell ref="D332:D336"/>
@@ -12745,6 +17001,9 @@
     <mergeCell ref="B197:B201"/>
     <mergeCell ref="F167:F171"/>
     <mergeCell ref="F332:F336"/>
+    <mergeCell ref="B442:B444"/>
+    <mergeCell ref="D461:D464"/>
+    <mergeCell ref="G457:G460"/>
     <mergeCell ref="I157:I161"/>
     <mergeCell ref="A127:A131"/>
     <mergeCell ref="A102:A106"/>
@@ -12752,7 +17011,9 @@
     <mergeCell ref="G257:G261"/>
     <mergeCell ref="H347:H351"/>
     <mergeCell ref="I257:I261"/>
+    <mergeCell ref="A387:A391"/>
     <mergeCell ref="J347:J351"/>
+    <mergeCell ref="C387:C391"/>
     <mergeCell ref="A337:A341"/>
     <mergeCell ref="F162:F166"/>
     <mergeCell ref="H162:H166"/>
@@ -12761,10 +17022,15 @@
     <mergeCell ref="H227:H231"/>
     <mergeCell ref="B292:B296"/>
     <mergeCell ref="G117:G121"/>
+    <mergeCell ref="J472:J475"/>
+    <mergeCell ref="B357:B361"/>
     <mergeCell ref="E132:E136"/>
     <mergeCell ref="C97:C101"/>
+    <mergeCell ref="J422:J425"/>
     <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C382:C386"/>
     <mergeCell ref="D52:D56"/>
+    <mergeCell ref="G392:G396"/>
     <mergeCell ref="H222:H226"/>
     <mergeCell ref="B287:B291"/>
     <mergeCell ref="G112:G116"/>
@@ -12786,7 +17052,12 @@
     <mergeCell ref="D47:D51"/>
     <mergeCell ref="F47:F51"/>
     <mergeCell ref="F22:F26"/>
+    <mergeCell ref="A461:A464"/>
+    <mergeCell ref="H367:H371"/>
+    <mergeCell ref="I387:I391"/>
+    <mergeCell ref="G445:G448"/>
     <mergeCell ref="F317:F321"/>
+    <mergeCell ref="I445:I448"/>
     <mergeCell ref="H342:H346"/>
     <mergeCell ref="J342:J346"/>
     <mergeCell ref="I172:I176"/>
@@ -12799,19 +17070,27 @@
     <mergeCell ref="E277:E281"/>
     <mergeCell ref="D142:D146"/>
     <mergeCell ref="G277:G281"/>
+    <mergeCell ref="H476:H477"/>
     <mergeCell ref="B7:B11"/>
+    <mergeCell ref="J476:J477"/>
     <mergeCell ref="J337:J341"/>
     <mergeCell ref="E67:E71"/>
     <mergeCell ref="B242:B246"/>
     <mergeCell ref="J202:J206"/>
+    <mergeCell ref="I397:I401"/>
     <mergeCell ref="B307:B311"/>
     <mergeCell ref="G132:G136"/>
+    <mergeCell ref="C397:C401"/>
     <mergeCell ref="E107:E111"/>
     <mergeCell ref="G107:G111"/>
     <mergeCell ref="D282:D286"/>
+    <mergeCell ref="B406:B409"/>
     <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C430:C433"/>
     <mergeCell ref="D2:D6"/>
+    <mergeCell ref="I392:I396"/>
     <mergeCell ref="F12:F16"/>
+    <mergeCell ref="F468:F471"/>
     <mergeCell ref="F297:F301"/>
     <mergeCell ref="H297:H301"/>
     <mergeCell ref="F327:F331"/>
